--- a/output.xlsx
+++ b/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="226">
   <si>
     <t>_id</t>
   </si>
@@ -284,6 +284,411 @@
   </si>
   <si>
     <t>A+</t>
+  </si>
+  <si>
+    <t>12-06-2002</t>
+  </si>
+  <si>
+    <t>الرابعة</t>
+  </si>
+  <si>
+    <t>"656b3435e526bd48afd61df4"</t>
+  </si>
+  <si>
+    <t>إخلاء اجازات</t>
+  </si>
+  <si>
+    <t>نهاية العام الدراسي</t>
+  </si>
+  <si>
+    <t>"65684fdc5852b0ed960549c4"</t>
+  </si>
+  <si>
+    <t>"657389f78ed79f2bff5c3c56"</t>
+  </si>
+  <si>
+    <t>30209138800696</t>
+  </si>
+  <si>
+    <t>يوسف وحيد</t>
+  </si>
+  <si>
+    <t>01/01/2001</t>
+  </si>
+  <si>
+    <t>السودان</t>
+  </si>
+  <si>
+    <t>option1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">9محمد جلال </t>
+  </si>
+  <si>
+    <t>joe@gmail.com</t>
+  </si>
+  <si>
+    <t>0237203431</t>
+  </si>
+  <si>
+    <t>01024870994</t>
+  </si>
+  <si>
+    <t>وحيد عبدالحميد</t>
+  </si>
+  <si>
+    <t>محاسب</t>
+  </si>
+  <si>
+    <t>01066678933</t>
+  </si>
+  <si>
+    <t>عبدالحميد فرحات</t>
+  </si>
+  <si>
+    <t>الجد</t>
+  </si>
+  <si>
+    <t>اولي</t>
+  </si>
+  <si>
+    <t>option2</t>
+  </si>
+  <si>
+    <t>قديم</t>
+  </si>
+  <si>
+    <t>joe123</t>
+  </si>
+  <si>
+    <t>541653421</t>
+  </si>
+  <si>
+    <t>سودان</t>
+  </si>
+  <si>
+    <t>"65745c6700a85479744def0c"</t>
+  </si>
+  <si>
+    <t>maxim alan</t>
+  </si>
+  <si>
+    <t>فرنسا</t>
+  </si>
+  <si>
+    <t>alan@gmail.com</t>
+  </si>
+  <si>
+    <t>alanlanon</t>
+  </si>
+  <si>
+    <t>5416534223</t>
+  </si>
+  <si>
+    <t>فرنسي</t>
+  </si>
+  <si>
+    <t>"657460f100a85479744def16"</t>
+  </si>
+  <si>
+    <t>روبيرت ليفا</t>
+  </si>
+  <si>
+    <t>06/16/1999</t>
+  </si>
+  <si>
+    <t>فرانكفورت</t>
+  </si>
+  <si>
+    <t>8محمد جلال</t>
+  </si>
+  <si>
+    <t>leva@gmail.com</t>
+  </si>
+  <si>
+    <t>22222222222323</t>
+  </si>
+  <si>
+    <t>01523624857</t>
+  </si>
+  <si>
+    <t>اعدادي</t>
+  </si>
+  <si>
+    <t>option11</t>
+  </si>
+  <si>
+    <t>leva.123</t>
+  </si>
+  <si>
+    <t>101010121212</t>
+  </si>
+  <si>
+    <t>الماني</t>
+  </si>
+  <si>
+    <t>"6574632200a85479744def1a"</t>
+  </si>
+  <si>
+    <t>levaaa@gmail.com</t>
+  </si>
+  <si>
+    <t>"6574636100a85479744def20"</t>
+  </si>
+  <si>
+    <t>leva1aa@gmail.com</t>
+  </si>
+  <si>
+    <t>"6574638200a85479744def22"</t>
+  </si>
+  <si>
+    <t>levaa@gmail.com</t>
+  </si>
+  <si>
+    <t>"657466c1f9610affaca54667"</t>
+  </si>
+  <si>
+    <t>lewandowski@gmail.com</t>
+  </si>
+  <si>
+    <t>"65746bdcf9610affaca54669"</t>
+  </si>
+  <si>
+    <t>كريم بنزيما</t>
+  </si>
+  <si>
+    <t>نييس</t>
+  </si>
+  <si>
+    <t>7محمد جلال</t>
+  </si>
+  <si>
+    <t>kimo@gmail.com</t>
+  </si>
+  <si>
+    <t>الثالثة</t>
+  </si>
+  <si>
+    <t>جيد جدا</t>
+  </si>
+  <si>
+    <t>kimokono</t>
+  </si>
+  <si>
+    <t>"65746cf7f9610affaca5466d"</t>
+  </si>
+  <si>
+    <t>kimooo@gmail.com</t>
+  </si>
+  <si>
+    <t>"65746e7af9610affaca54671"</t>
+  </si>
+  <si>
+    <t>kimoobenzo@gmail.com</t>
+  </si>
+  <si>
+    <t>1010121212</t>
+  </si>
+  <si>
+    <t>"65746fe9f9610affaca5467a"</t>
+  </si>
+  <si>
+    <t>ليو ميسي</t>
+  </si>
+  <si>
+    <t>ارجنتين</t>
+  </si>
+  <si>
+    <t>مسيحي</t>
+  </si>
+  <si>
+    <t>messi@gmail.com</t>
+  </si>
+  <si>
+    <t>علمي رياضة</t>
+  </si>
+  <si>
+    <t>Messi10</t>
+  </si>
+  <si>
+    <t>ارجنتيني</t>
+  </si>
+  <si>
+    <t>"6574701df9610affaca5467e"</t>
+  </si>
+  <si>
+    <t>messi10@gmail.com</t>
+  </si>
+  <si>
+    <t>"65747079f9610affaca54680"</t>
+  </si>
+  <si>
+    <t>messi30@gmail.com</t>
+  </si>
+  <si>
+    <t>"65747139f9610affaca54682"</t>
+  </si>
+  <si>
+    <t>30209138800697</t>
+  </si>
+  <si>
+    <t>كريستيانو</t>
+  </si>
+  <si>
+    <t>برتغال</t>
+  </si>
+  <si>
+    <t>CR7GOAT@gmail.com</t>
+  </si>
+  <si>
+    <t>رونالدو</t>
+  </si>
+  <si>
+    <t>90006968800321</t>
+  </si>
+  <si>
+    <t>عامل</t>
+  </si>
+  <si>
+    <t>رونالدو الكبير</t>
+  </si>
+  <si>
+    <t>2000369321357384</t>
+  </si>
+  <si>
+    <t>CR7Goat</t>
+  </si>
+  <si>
+    <t>"6574721af9610affaca54686"</t>
+  </si>
+  <si>
+    <t>CR7GoaT@gmail.com</t>
+  </si>
+  <si>
+    <t>"65747259f9610affaca5468a"</t>
+  </si>
+  <si>
+    <t>Cr7GoaT@gmail.com</t>
+  </si>
+  <si>
+    <t>"65747279f9610affaca5468e"</t>
+  </si>
+  <si>
+    <t>Cr7Goat@gmail.com</t>
+  </si>
+  <si>
+    <t>"657473c9f9610affaca54692"</t>
+  </si>
+  <si>
+    <t>مودريتش</t>
+  </si>
+  <si>
+    <t>كورواتيا</t>
+  </si>
+  <si>
+    <t>modric@gmail.com</t>
+  </si>
+  <si>
+    <t>mod1233</t>
+  </si>
+  <si>
+    <t>"65747dd9f9610affaca54698"</t>
+  </si>
+  <si>
+    <t>moodric@gmail.com</t>
+  </si>
+  <si>
+    <t>"6574c623000f1a54f36fd2ec"</t>
+  </si>
+  <si>
+    <t>عمر اشرف</t>
+  </si>
+  <si>
+    <t>الخارج</t>
+  </si>
+  <si>
+    <t>شارع السودان</t>
+  </si>
+  <si>
+    <t>kkkkkk@gmail.com</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>01097617655</t>
+  </si>
+  <si>
+    <t>مستجد</t>
+  </si>
+  <si>
+    <t>"6574c63a000f1a54f36fd2ee"</t>
+  </si>
+  <si>
+    <t>asdasdasd@gmail.com</t>
+  </si>
+  <si>
+    <t>"6574c74886b6b3610e09d46b"</t>
+  </si>
+  <si>
+    <t>مانويل نوير</t>
+  </si>
+  <si>
+    <t>المانيا</t>
+  </si>
+  <si>
+    <t>اول شارع فرانكفورت</t>
+  </si>
+  <si>
+    <t>manuel@gmail.com</t>
+  </si>
+  <si>
+    <t>13245</t>
+  </si>
+  <si>
+    <t>658342103</t>
+  </si>
+  <si>
+    <t>"6574d6603b15c991174be9ac"</t>
+  </si>
+  <si>
+    <t>30309138800696</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>YOUSSEPH@gmail.com</t>
+  </si>
+  <si>
+    <t>37203431</t>
+  </si>
+  <si>
+    <t>01024870664</t>
+  </si>
+  <si>
+    <t>30109138800696</t>
+  </si>
+  <si>
+    <t>01165498732</t>
+  </si>
+  <si>
+    <t>وحيد</t>
+  </si>
+  <si>
+    <t>الاب</t>
+  </si>
+  <si>
+    <t>68541635240120</t>
+  </si>
+  <si>
+    <t>01532165487</t>
+  </si>
+  <si>
+    <t>joejoejoe</t>
   </si>
 </sst>
 </file>
@@ -661,7 +1066,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AY67"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -2132,8 +2537,6252 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12">
+        <v>202001012</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>54</v>
+      </c>
+      <c r="R12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z12">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>215</v>
+      </c>
+      <c r="AD12">
+        <v>86</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>45265.562138877314</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>45265.95291496528</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>202001013</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" t="s">
+        <v>73</v>
+      </c>
+      <c r="V13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z13">
+        <v>80</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>285</v>
+      </c>
+      <c r="AD13">
+        <v>96</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>45265.56317255787</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>45265.56317255787</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>202007013</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" t="s">
+        <v>73</v>
+      </c>
+      <c r="V14" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z14">
+        <v>80</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>265</v>
+      </c>
+      <c r="AD14">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>45265.56400254629</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>45265.56400254629</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15">
+        <v>202007013</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" t="s">
+        <v>83</v>
+      </c>
+      <c r="T15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15" t="s">
+        <v>57</v>
+      </c>
+      <c r="W15" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z15">
+        <v>80</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>265</v>
+      </c>
+      <c r="AD15">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>45265.570913993055</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>45266.05301290509</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16">
+        <v>20007013</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>87</v>
+      </c>
+      <c r="R16" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" t="s">
+        <v>88</v>
+      </c>
+      <c r="T16" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16" t="s">
+        <v>89</v>
+      </c>
+      <c r="V16" t="s">
+        <v>57</v>
+      </c>
+      <c r="W16" t="s">
+        <v>57</v>
+      </c>
+      <c r="X16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z16">
+        <v>70</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB16">
+        <v>4.6</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>265</v>
+      </c>
+      <c r="AF16">
+        <v>56</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>45265.57341170139</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>45266.0810446875</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17">
+        <v>202001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>108</v>
+      </c>
+      <c r="R17" t="s">
+        <v>98</v>
+      </c>
+      <c r="S17" t="s">
+        <v>109</v>
+      </c>
+      <c r="T17" t="s">
+        <v>110</v>
+      </c>
+      <c r="U17" t="s">
+        <v>111</v>
+      </c>
+      <c r="V17" t="s">
+        <v>112</v>
+      </c>
+      <c r="W17" t="s">
+        <v>98</v>
+      </c>
+      <c r="X17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>374</v>
+      </c>
+      <c r="AG17">
+        <v>91</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>45268.89323100694</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>45268.89323100694</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2020201</v>
+      </c>
+      <c r="G18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N18" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>103</v>
+      </c>
+      <c r="S18" t="s">
+        <v>103</v>
+      </c>
+      <c r="T18" t="s">
+        <v>114</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>374</v>
+      </c>
+      <c r="W18">
+        <v>91</v>
+      </c>
+      <c r="X18" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>45269.51674788195</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>45269.51674788195</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>20203030</v>
+      </c>
+      <c r="G19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>135</v>
+      </c>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>400</v>
+      </c>
+      <c r="T19">
+        <v>98</v>
+      </c>
+      <c r="U19" t="s">
+        <v>115</v>
+      </c>
+      <c r="V19" t="s">
+        <v>136</v>
+      </c>
+      <c r="W19" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>45269.530207777774</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>45269.530207777774</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>20203030</v>
+      </c>
+      <c r="G20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" t="s">
+        <v>140</v>
+      </c>
+      <c r="N20" t="s">
+        <v>132</v>
+      </c>
+      <c r="O20" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>135</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>400</v>
+      </c>
+      <c r="T20">
+        <v>98</v>
+      </c>
+      <c r="U20" t="s">
+        <v>115</v>
+      </c>
+      <c r="V20" t="s">
+        <v>136</v>
+      </c>
+      <c r="W20" t="b">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>45269.53670037037</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>45269.53670037037</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>20203030</v>
+      </c>
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" t="s">
+        <v>130</v>
+      </c>
+      <c r="M21" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21" t="s">
+        <v>132</v>
+      </c>
+      <c r="O21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>135</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>400</v>
+      </c>
+      <c r="T21">
+        <v>98</v>
+      </c>
+      <c r="U21" t="s">
+        <v>115</v>
+      </c>
+      <c r="V21" t="s">
+        <v>136</v>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>45269.53742655093</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>45269.53742655093</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>20203030</v>
+      </c>
+      <c r="G22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" t="s">
+        <v>144</v>
+      </c>
+      <c r="N22" t="s">
+        <v>132</v>
+      </c>
+      <c r="O22" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>135</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>400</v>
+      </c>
+      <c r="T22">
+        <v>98</v>
+      </c>
+      <c r="U22" t="s">
+        <v>115</v>
+      </c>
+      <c r="V22" t="s">
+        <v>136</v>
+      </c>
+      <c r="W22" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>45269.537801631945</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>45269.537801631945</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>20203030</v>
+      </c>
+      <c r="G23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M23" t="s">
+        <v>146</v>
+      </c>
+      <c r="N23" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>135</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>400</v>
+      </c>
+      <c r="T23">
+        <v>98</v>
+      </c>
+      <c r="U23" t="s">
+        <v>115</v>
+      </c>
+      <c r="V23" t="s">
+        <v>136</v>
+      </c>
+      <c r="W23" t="b">
+        <v>1</v>
+      </c>
+      <c r="X23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>45269.547419317125</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>45269.547419317125</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>20203030</v>
+      </c>
+      <c r="G24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L24" t="s">
+        <v>150</v>
+      </c>
+      <c r="M24" t="s">
+        <v>151</v>
+      </c>
+      <c r="N24" t="s">
+        <v>132</v>
+      </c>
+      <c r="O24" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>153</v>
+      </c>
+      <c r="R24">
+        <v>79</v>
+      </c>
+      <c r="S24" t="s">
+        <v>115</v>
+      </c>
+      <c r="T24" t="s">
+        <v>115</v>
+      </c>
+      <c r="U24" t="s">
+        <v>154</v>
+      </c>
+      <c r="V24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
+        <v>137</v>
+      </c>
+      <c r="X24" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>45269.56254633101</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>45269.56254633101</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>20203030</v>
+      </c>
+      <c r="G25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" t="s">
+        <v>156</v>
+      </c>
+      <c r="N25" t="s">
+        <v>132</v>
+      </c>
+      <c r="O25" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>153</v>
+      </c>
+      <c r="R25">
+        <v>79</v>
+      </c>
+      <c r="S25" t="s">
+        <v>115</v>
+      </c>
+      <c r="T25" t="s">
+        <v>115</v>
+      </c>
+      <c r="U25" t="s">
+        <v>154</v>
+      </c>
+      <c r="V25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
+        <v>137</v>
+      </c>
+      <c r="X25" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>45269.56583032408</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>45269.56583032408</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>20203040</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" t="s">
+        <v>158</v>
+      </c>
+      <c r="N26" t="s">
+        <v>132</v>
+      </c>
+      <c r="O26" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>153</v>
+      </c>
+      <c r="R26">
+        <v>79</v>
+      </c>
+      <c r="S26" t="s">
+        <v>115</v>
+      </c>
+      <c r="T26" t="s">
+        <v>115</v>
+      </c>
+      <c r="U26" t="s">
+        <v>154</v>
+      </c>
+      <c r="V26" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" t="s">
+        <v>159</v>
+      </c>
+      <c r="X26" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>45269.57031137732</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>45269.57031137732</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>222222222</v>
+      </c>
+      <c r="G27" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" t="s">
+        <v>162</v>
+      </c>
+      <c r="J27" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" t="s">
+        <v>163</v>
+      </c>
+      <c r="L27" t="s">
+        <v>150</v>
+      </c>
+      <c r="M27" t="s">
+        <v>164</v>
+      </c>
+      <c r="N27" t="s">
+        <v>132</v>
+      </c>
+      <c r="O27" t="s">
+        <v>133</v>
+      </c>
+      <c r="P27" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>165</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>400</v>
+      </c>
+      <c r="T27">
+        <v>98</v>
+      </c>
+      <c r="U27" t="s">
+        <v>115</v>
+      </c>
+      <c r="V27" t="s">
+        <v>166</v>
+      </c>
+      <c r="W27" t="b">
+        <v>1</v>
+      </c>
+      <c r="X27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>45269.57455839121</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>45269.57455839121</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>222222222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" t="s">
+        <v>163</v>
+      </c>
+      <c r="L28" t="s">
+        <v>150</v>
+      </c>
+      <c r="M28" t="s">
+        <v>169</v>
+      </c>
+      <c r="N28" t="s">
+        <v>132</v>
+      </c>
+      <c r="O28" t="s">
+        <v>133</v>
+      </c>
+      <c r="P28" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>165</v>
+      </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>400</v>
+      </c>
+      <c r="T28">
+        <v>98</v>
+      </c>
+      <c r="U28" t="s">
+        <v>115</v>
+      </c>
+      <c r="V28" t="s">
+        <v>166</v>
+      </c>
+      <c r="W28" t="b">
+        <v>1</v>
+      </c>
+      <c r="X28" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>45269.57515314815</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>45269.57515314815</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>222222222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" t="s">
+        <v>162</v>
+      </c>
+      <c r="J29" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" t="s">
+        <v>163</v>
+      </c>
+      <c r="L29" t="s">
+        <v>150</v>
+      </c>
+      <c r="M29" t="s">
+        <v>171</v>
+      </c>
+      <c r="N29" t="s">
+        <v>132</v>
+      </c>
+      <c r="O29" t="s">
+        <v>133</v>
+      </c>
+      <c r="P29" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>165</v>
+      </c>
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>400</v>
+      </c>
+      <c r="T29">
+        <v>98</v>
+      </c>
+      <c r="U29" t="s">
+        <v>115</v>
+      </c>
+      <c r="V29" t="s">
+        <v>166</v>
+      </c>
+      <c r="W29" t="b">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>45269.57622649305</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>45269.57622649305</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30">
+        <v>111111111111111</v>
+      </c>
+      <c r="H30" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" t="s">
+        <v>128</v>
+      </c>
+      <c r="J30" t="s">
+        <v>175</v>
+      </c>
+      <c r="K30" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" t="s">
+        <v>163</v>
+      </c>
+      <c r="M30" t="s">
+        <v>150</v>
+      </c>
+      <c r="N30" t="s">
+        <v>176</v>
+      </c>
+      <c r="O30" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>177</v>
+      </c>
+      <c r="R30" t="s">
+        <v>178</v>
+      </c>
+      <c r="S30" t="s">
+        <v>179</v>
+      </c>
+      <c r="T30" t="s">
+        <v>107</v>
+      </c>
+      <c r="U30" t="s">
+        <v>180</v>
+      </c>
+      <c r="V30" t="s">
+        <v>112</v>
+      </c>
+      <c r="W30" t="s">
+        <v>181</v>
+      </c>
+      <c r="X30" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>400</v>
+      </c>
+      <c r="AD30">
+        <v>98</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>45269.57843988426</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>45269.57843988426</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31">
+        <v>111111111111111</v>
+      </c>
+      <c r="H31" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" t="s">
+        <v>128</v>
+      </c>
+      <c r="J31" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31" t="s">
+        <v>163</v>
+      </c>
+      <c r="M31" t="s">
+        <v>150</v>
+      </c>
+      <c r="N31" t="s">
+        <v>184</v>
+      </c>
+      <c r="O31" t="s">
+        <v>132</v>
+      </c>
+      <c r="P31" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>177</v>
+      </c>
+      <c r="R31" t="s">
+        <v>178</v>
+      </c>
+      <c r="S31" t="s">
+        <v>179</v>
+      </c>
+      <c r="T31" t="s">
+        <v>107</v>
+      </c>
+      <c r="U31" t="s">
+        <v>180</v>
+      </c>
+      <c r="V31" t="s">
+        <v>112</v>
+      </c>
+      <c r="W31" t="s">
+        <v>181</v>
+      </c>
+      <c r="X31" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>400</v>
+      </c>
+      <c r="AD31">
+        <v>98</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>45269.581047534724</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>45269.581047534724</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32">
+        <v>111111111111111</v>
+      </c>
+      <c r="H32" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" t="s">
+        <v>102</v>
+      </c>
+      <c r="L32" t="s">
+        <v>163</v>
+      </c>
+      <c r="M32" t="s">
+        <v>150</v>
+      </c>
+      <c r="N32" t="s">
+        <v>186</v>
+      </c>
+      <c r="O32" t="s">
+        <v>132</v>
+      </c>
+      <c r="P32" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>177</v>
+      </c>
+      <c r="R32" t="s">
+        <v>178</v>
+      </c>
+      <c r="S32" t="s">
+        <v>179</v>
+      </c>
+      <c r="T32" t="s">
+        <v>107</v>
+      </c>
+      <c r="U32" t="s">
+        <v>180</v>
+      </c>
+      <c r="V32" t="s">
+        <v>112</v>
+      </c>
+      <c r="W32" t="s">
+        <v>181</v>
+      </c>
+      <c r="X32" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB32">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>45269.58178234954</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>45269.58178234954</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33">
+        <v>111111111111111</v>
+      </c>
+      <c r="H33" t="s">
+        <v>174</v>
+      </c>
+      <c r="I33" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" t="s">
+        <v>175</v>
+      </c>
+      <c r="K33" t="s">
+        <v>102</v>
+      </c>
+      <c r="L33" t="s">
+        <v>163</v>
+      </c>
+      <c r="M33" t="s">
+        <v>150</v>
+      </c>
+      <c r="N33" t="s">
+        <v>188</v>
+      </c>
+      <c r="O33" t="s">
+        <v>132</v>
+      </c>
+      <c r="P33" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>177</v>
+      </c>
+      <c r="R33" t="s">
+        <v>178</v>
+      </c>
+      <c r="S33" t="s">
+        <v>179</v>
+      </c>
+      <c r="T33" t="s">
+        <v>107</v>
+      </c>
+      <c r="U33" t="s">
+        <v>180</v>
+      </c>
+      <c r="V33" t="s">
+        <v>112</v>
+      </c>
+      <c r="W33" t="s">
+        <v>181</v>
+      </c>
+      <c r="X33" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB33">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>45269.582145092594</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>45269.582145092594</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>111111111111111</v>
+      </c>
+      <c r="G34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34" t="s">
+        <v>128</v>
+      </c>
+      <c r="I34" t="s">
+        <v>191</v>
+      </c>
+      <c r="J34" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" t="s">
+        <v>163</v>
+      </c>
+      <c r="L34" t="s">
+        <v>150</v>
+      </c>
+      <c r="M34" t="s">
+        <v>192</v>
+      </c>
+      <c r="N34" t="s">
+        <v>132</v>
+      </c>
+      <c r="O34" t="s">
+        <v>133</v>
+      </c>
+      <c r="P34" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>165</v>
+      </c>
+      <c r="R34" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>400</v>
+      </c>
+      <c r="T34">
+        <v>98</v>
+      </c>
+      <c r="U34" t="s">
+        <v>115</v>
+      </c>
+      <c r="V34" t="s">
+        <v>193</v>
+      </c>
+      <c r="W34" t="b">
+        <v>1</v>
+      </c>
+      <c r="X34" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>45269.58603329861</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>45269.58603329861</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35">
+        <v>111111111111111</v>
+      </c>
+      <c r="H35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" t="s">
+        <v>128</v>
+      </c>
+      <c r="J35" t="s">
+        <v>191</v>
+      </c>
+      <c r="K35" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" t="s">
+        <v>163</v>
+      </c>
+      <c r="M35" t="s">
+        <v>150</v>
+      </c>
+      <c r="N35" t="s">
+        <v>195</v>
+      </c>
+      <c r="O35" t="s">
+        <v>132</v>
+      </c>
+      <c r="P35" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>177</v>
+      </c>
+      <c r="R35" t="s">
+        <v>178</v>
+      </c>
+      <c r="S35" t="s">
+        <v>179</v>
+      </c>
+      <c r="T35" t="s">
+        <v>107</v>
+      </c>
+      <c r="U35" t="s">
+        <v>180</v>
+      </c>
+      <c r="V35" t="s">
+        <v>112</v>
+      </c>
+      <c r="W35" t="s">
+        <v>181</v>
+      </c>
+      <c r="X35" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>400</v>
+      </c>
+      <c r="AD35">
+        <v>98</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>45269.61585462963</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>45269.61585462963</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>123456789</v>
+      </c>
+      <c r="G36" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" t="s">
+        <v>198</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" t="s">
+        <v>163</v>
+      </c>
+      <c r="L36" t="s">
+        <v>199</v>
+      </c>
+      <c r="M36" t="s">
+        <v>200</v>
+      </c>
+      <c r="N36" t="s">
+        <v>201</v>
+      </c>
+      <c r="O36" t="s">
+        <v>202</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>165</v>
+      </c>
+      <c r="R36" t="b">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>350</v>
+      </c>
+      <c r="T36">
+        <v>90.5</v>
+      </c>
+      <c r="U36" t="s">
+        <v>203</v>
+      </c>
+      <c r="V36" t="s">
+        <v>201</v>
+      </c>
+      <c r="W36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X36" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>45269.83003604166</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>45269.83003604166</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>123456789</v>
+      </c>
+      <c r="G37" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" t="s">
+        <v>198</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" t="s">
+        <v>199</v>
+      </c>
+      <c r="M37" t="s">
+        <v>205</v>
+      </c>
+      <c r="N37" t="s">
+        <v>201</v>
+      </c>
+      <c r="O37" t="s">
+        <v>202</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>165</v>
+      </c>
+      <c r="R37" t="b">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>350</v>
+      </c>
+      <c r="T37">
+        <v>90.5</v>
+      </c>
+      <c r="U37" t="s">
+        <v>203</v>
+      </c>
+      <c r="V37" t="s">
+        <v>201</v>
+      </c>
+      <c r="W37" t="b">
+        <v>1</v>
+      </c>
+      <c r="X37" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>45269.83030381944</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>45269.83030381944</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>20202051521</v>
+      </c>
+      <c r="G38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" t="s">
+        <v>208</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" t="s">
+        <v>209</v>
+      </c>
+      <c r="M38" t="s">
+        <v>210</v>
+      </c>
+      <c r="N38" t="s">
+        <v>106</v>
+      </c>
+      <c r="O38" t="s">
+        <v>107</v>
+      </c>
+      <c r="P38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>103</v>
+      </c>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>400</v>
+      </c>
+      <c r="T38">
+        <v>98</v>
+      </c>
+      <c r="U38" t="s">
+        <v>115</v>
+      </c>
+      <c r="V38" t="s">
+        <v>211</v>
+      </c>
+      <c r="W38" t="b">
+        <v>1</v>
+      </c>
+      <c r="X38" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>45269.83342909723</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>45269.83342909723</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>214</v>
+      </c>
+      <c r="G39">
+        <v>20201115</v>
+      </c>
+      <c r="H39" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" t="s">
+        <v>198</v>
+      </c>
+      <c r="K39" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" t="s">
+        <v>215</v>
+      </c>
+      <c r="N39" t="s">
+        <v>216</v>
+      </c>
+      <c r="O39" t="s">
+        <v>217</v>
+      </c>
+      <c r="P39" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>108</v>
+      </c>
+      <c r="R39" t="s">
+        <v>219</v>
+      </c>
+      <c r="S39" t="s">
+        <v>109</v>
+      </c>
+      <c r="T39" t="s">
+        <v>220</v>
+      </c>
+      <c r="U39" t="s">
+        <v>221</v>
+      </c>
+      <c r="V39" t="s">
+        <v>222</v>
+      </c>
+      <c r="W39" t="s">
+        <v>223</v>
+      </c>
+      <c r="X39" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB39">
+        <v>84</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>45269.87815333334</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>45269.87815333334</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40">
+        <v>202001012</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>91</v>
+      </c>
+      <c r="J40" t="s">
+        <v>48</v>
+      </c>
+      <c r="K40" t="s">
+        <v>49</v>
+      </c>
+      <c r="L40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>54</v>
+      </c>
+      <c r="R40" t="s">
+        <v>55</v>
+      </c>
+      <c r="S40" t="s">
+        <v>56</v>
+      </c>
+      <c r="T40" t="s">
+        <v>57</v>
+      </c>
+      <c r="U40" t="s">
+        <v>58</v>
+      </c>
+      <c r="V40" t="s">
+        <v>57</v>
+      </c>
+      <c r="W40" t="s">
+        <v>57</v>
+      </c>
+      <c r="X40" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z40">
+        <v>80</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>215</v>
+      </c>
+      <c r="AD40">
+        <v>86</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>45265.562138877314</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>45265.95291496528</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41">
+        <v>202001013</v>
+      </c>
+      <c r="H41" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" t="s">
+        <v>68</v>
+      </c>
+      <c r="N41" t="s">
+        <v>51</v>
+      </c>
+      <c r="O41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>70</v>
+      </c>
+      <c r="R41" t="s">
+        <v>71</v>
+      </c>
+      <c r="S41" t="s">
+        <v>72</v>
+      </c>
+      <c r="T41" t="s">
+        <v>57</v>
+      </c>
+      <c r="U41" t="s">
+        <v>73</v>
+      </c>
+      <c r="V41" t="s">
+        <v>57</v>
+      </c>
+      <c r="W41" t="s">
+        <v>57</v>
+      </c>
+      <c r="X41" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z41">
+        <v>80</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>285</v>
+      </c>
+      <c r="AD41">
+        <v>96</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>45265.56317255787</v>
+      </c>
+      <c r="AP41" s="1">
+        <v>45265.56317255787</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42">
+        <v>202007013</v>
+      </c>
+      <c r="H42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" t="s">
+        <v>50</v>
+      </c>
+      <c r="M42" t="s">
+        <v>77</v>
+      </c>
+      <c r="N42" t="s">
+        <v>51</v>
+      </c>
+      <c r="O42" t="s">
+        <v>78</v>
+      </c>
+      <c r="P42" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>70</v>
+      </c>
+      <c r="R42" t="s">
+        <v>79</v>
+      </c>
+      <c r="S42" t="s">
+        <v>72</v>
+      </c>
+      <c r="T42" t="s">
+        <v>57</v>
+      </c>
+      <c r="U42" t="s">
+        <v>73</v>
+      </c>
+      <c r="V42" t="s">
+        <v>57</v>
+      </c>
+      <c r="W42" t="s">
+        <v>57</v>
+      </c>
+      <c r="X42" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z42">
+        <v>80</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>265</v>
+      </c>
+      <c r="AD42">
+        <v>56</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>45265.56400254629</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>45265.56400254629</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43">
+        <v>202007013</v>
+      </c>
+      <c r="H43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" t="s">
+        <v>77</v>
+      </c>
+      <c r="N43" t="s">
+        <v>51</v>
+      </c>
+      <c r="O43" t="s">
+        <v>82</v>
+      </c>
+      <c r="P43" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>70</v>
+      </c>
+      <c r="R43" t="s">
+        <v>79</v>
+      </c>
+      <c r="S43" t="s">
+        <v>83</v>
+      </c>
+      <c r="T43" t="s">
+        <v>57</v>
+      </c>
+      <c r="U43" t="s">
+        <v>73</v>
+      </c>
+      <c r="V43" t="s">
+        <v>57</v>
+      </c>
+      <c r="W43" t="s">
+        <v>57</v>
+      </c>
+      <c r="X43" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z43">
+        <v>80</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>265</v>
+      </c>
+      <c r="AD43">
+        <v>56</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>45265.570913993055</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>45266.05301290509</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44">
+        <v>20007013</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" t="s">
+        <v>67</v>
+      </c>
+      <c r="L44" t="s">
+        <v>50</v>
+      </c>
+      <c r="M44" t="s">
+        <v>51</v>
+      </c>
+      <c r="N44" t="s">
+        <v>51</v>
+      </c>
+      <c r="O44" t="s">
+        <v>86</v>
+      </c>
+      <c r="P44" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>87</v>
+      </c>
+      <c r="R44" t="s">
+        <v>79</v>
+      </c>
+      <c r="S44" t="s">
+        <v>88</v>
+      </c>
+      <c r="T44" t="s">
+        <v>57</v>
+      </c>
+      <c r="U44" t="s">
+        <v>89</v>
+      </c>
+      <c r="V44" t="s">
+        <v>57</v>
+      </c>
+      <c r="W44" t="s">
+        <v>57</v>
+      </c>
+      <c r="X44" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z44">
+        <v>70</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB44">
+        <v>4.6</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>265</v>
+      </c>
+      <c r="AF44">
+        <v>56</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>45265.57341170139</v>
+      </c>
+      <c r="AR44" s="1">
+        <v>45266.0810446875</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45">
+        <v>202001</v>
+      </c>
+      <c r="H45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J45" t="s">
+        <v>101</v>
+      </c>
+      <c r="K45" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" t="s">
+        <v>103</v>
+      </c>
+      <c r="M45" t="s">
+        <v>104</v>
+      </c>
+      <c r="N45" t="s">
+        <v>105</v>
+      </c>
+      <c r="O45" t="s">
+        <v>106</v>
+      </c>
+      <c r="P45" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>108</v>
+      </c>
+      <c r="R45" t="s">
+        <v>98</v>
+      </c>
+      <c r="S45" t="s">
+        <v>109</v>
+      </c>
+      <c r="T45" t="s">
+        <v>110</v>
+      </c>
+      <c r="U45" t="s">
+        <v>111</v>
+      </c>
+      <c r="V45" t="s">
+        <v>112</v>
+      </c>
+      <c r="W45" t="s">
+        <v>98</v>
+      </c>
+      <c r="X45" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>374</v>
+      </c>
+      <c r="AG45">
+        <v>91</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>45268.89323100694</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>45268.89323100694</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>2020201</v>
+      </c>
+      <c r="G46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H46" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" t="s">
+        <v>121</v>
+      </c>
+      <c r="J46" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" t="s">
+        <v>104</v>
+      </c>
+      <c r="M46" t="s">
+        <v>122</v>
+      </c>
+      <c r="N46" t="s">
+        <v>106</v>
+      </c>
+      <c r="O46" t="s">
+        <v>107</v>
+      </c>
+      <c r="P46" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>103</v>
+      </c>
+      <c r="S46" t="s">
+        <v>103</v>
+      </c>
+      <c r="T46" t="s">
+        <v>114</v>
+      </c>
+      <c r="U46" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>374</v>
+      </c>
+      <c r="W46">
+        <v>91</v>
+      </c>
+      <c r="X46" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>45269.51674788195</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>45269.51674788195</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>20203030</v>
+      </c>
+      <c r="G47" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" t="s">
+        <v>129</v>
+      </c>
+      <c r="J47" t="s">
+        <v>114</v>
+      </c>
+      <c r="K47" t="s">
+        <v>114</v>
+      </c>
+      <c r="L47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M47" t="s">
+        <v>131</v>
+      </c>
+      <c r="N47" t="s">
+        <v>132</v>
+      </c>
+      <c r="O47" t="s">
+        <v>133</v>
+      </c>
+      <c r="P47" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>135</v>
+      </c>
+      <c r="R47" t="b">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>400</v>
+      </c>
+      <c r="T47">
+        <v>98</v>
+      </c>
+      <c r="U47" t="s">
+        <v>115</v>
+      </c>
+      <c r="V47" t="s">
+        <v>136</v>
+      </c>
+      <c r="W47" t="b">
+        <v>1</v>
+      </c>
+      <c r="X47" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>45269.530207777774</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>45269.530207777774</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>20203030</v>
+      </c>
+      <c r="G48" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" t="s">
+        <v>129</v>
+      </c>
+      <c r="J48" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" t="s">
+        <v>114</v>
+      </c>
+      <c r="L48" t="s">
+        <v>130</v>
+      </c>
+      <c r="M48" t="s">
+        <v>140</v>
+      </c>
+      <c r="N48" t="s">
+        <v>132</v>
+      </c>
+      <c r="O48" t="s">
+        <v>133</v>
+      </c>
+      <c r="P48" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>135</v>
+      </c>
+      <c r="R48" t="b">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>400</v>
+      </c>
+      <c r="T48">
+        <v>98</v>
+      </c>
+      <c r="U48" t="s">
+        <v>115</v>
+      </c>
+      <c r="V48" t="s">
+        <v>136</v>
+      </c>
+      <c r="W48" t="b">
+        <v>1</v>
+      </c>
+      <c r="X48" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>45269.53670037037</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>45269.53670037037</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>20203030</v>
+      </c>
+      <c r="G49" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I49" t="s">
+        <v>129</v>
+      </c>
+      <c r="J49" t="s">
+        <v>102</v>
+      </c>
+      <c r="K49" t="s">
+        <v>114</v>
+      </c>
+      <c r="L49" t="s">
+        <v>130</v>
+      </c>
+      <c r="M49" t="s">
+        <v>142</v>
+      </c>
+      <c r="N49" t="s">
+        <v>132</v>
+      </c>
+      <c r="O49" t="s">
+        <v>133</v>
+      </c>
+      <c r="P49" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>135</v>
+      </c>
+      <c r="R49" t="b">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>400</v>
+      </c>
+      <c r="T49">
+        <v>98</v>
+      </c>
+      <c r="U49" t="s">
+        <v>115</v>
+      </c>
+      <c r="V49" t="s">
+        <v>136</v>
+      </c>
+      <c r="W49" t="b">
+        <v>1</v>
+      </c>
+      <c r="X49" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>45269.53742655093</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>45269.53742655093</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>20203030</v>
+      </c>
+      <c r="G50" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" t="s">
+        <v>129</v>
+      </c>
+      <c r="J50" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50" t="s">
+        <v>114</v>
+      </c>
+      <c r="L50" t="s">
+        <v>130</v>
+      </c>
+      <c r="M50" t="s">
+        <v>144</v>
+      </c>
+      <c r="N50" t="s">
+        <v>132</v>
+      </c>
+      <c r="O50" t="s">
+        <v>133</v>
+      </c>
+      <c r="P50" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>135</v>
+      </c>
+      <c r="R50" t="b">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>400</v>
+      </c>
+      <c r="T50">
+        <v>98</v>
+      </c>
+      <c r="U50" t="s">
+        <v>115</v>
+      </c>
+      <c r="V50" t="s">
+        <v>136</v>
+      </c>
+      <c r="W50" t="b">
+        <v>1</v>
+      </c>
+      <c r="X50" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>45269.537801631945</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>45269.537801631945</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>20203030</v>
+      </c>
+      <c r="G51" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" t="s">
+        <v>128</v>
+      </c>
+      <c r="I51" t="s">
+        <v>129</v>
+      </c>
+      <c r="J51" t="s">
+        <v>102</v>
+      </c>
+      <c r="K51" t="s">
+        <v>114</v>
+      </c>
+      <c r="L51" t="s">
+        <v>130</v>
+      </c>
+      <c r="M51" t="s">
+        <v>146</v>
+      </c>
+      <c r="N51" t="s">
+        <v>132</v>
+      </c>
+      <c r="O51" t="s">
+        <v>133</v>
+      </c>
+      <c r="P51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>135</v>
+      </c>
+      <c r="R51" t="b">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>400</v>
+      </c>
+      <c r="T51">
+        <v>98</v>
+      </c>
+      <c r="U51" t="s">
+        <v>115</v>
+      </c>
+      <c r="V51" t="s">
+        <v>136</v>
+      </c>
+      <c r="W51" t="b">
+        <v>1</v>
+      </c>
+      <c r="X51" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>45269.547419317125</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>45269.547419317125</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>20203030</v>
+      </c>
+      <c r="G52" t="s">
+        <v>148</v>
+      </c>
+      <c r="H52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I52" t="s">
+        <v>149</v>
+      </c>
+      <c r="J52" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52" t="s">
+        <v>114</v>
+      </c>
+      <c r="L52" t="s">
+        <v>150</v>
+      </c>
+      <c r="M52" t="s">
+        <v>151</v>
+      </c>
+      <c r="N52" t="s">
+        <v>132</v>
+      </c>
+      <c r="O52" t="s">
+        <v>133</v>
+      </c>
+      <c r="P52" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>153</v>
+      </c>
+      <c r="R52">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s">
+        <v>115</v>
+      </c>
+      <c r="T52" t="s">
+        <v>115</v>
+      </c>
+      <c r="U52" t="s">
+        <v>154</v>
+      </c>
+      <c r="V52" t="b">
+        <v>1</v>
+      </c>
+      <c r="W52" t="s">
+        <v>137</v>
+      </c>
+      <c r="X52" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>45269.56254633101</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>45269.56254633101</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>20203030</v>
+      </c>
+      <c r="G53" t="s">
+        <v>148</v>
+      </c>
+      <c r="H53" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" t="s">
+        <v>149</v>
+      </c>
+      <c r="J53" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53" t="s">
+        <v>114</v>
+      </c>
+      <c r="L53" t="s">
+        <v>150</v>
+      </c>
+      <c r="M53" t="s">
+        <v>156</v>
+      </c>
+      <c r="N53" t="s">
+        <v>132</v>
+      </c>
+      <c r="O53" t="s">
+        <v>133</v>
+      </c>
+      <c r="P53" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>153</v>
+      </c>
+      <c r="R53">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s">
+        <v>115</v>
+      </c>
+      <c r="T53" t="s">
+        <v>115</v>
+      </c>
+      <c r="U53" t="s">
+        <v>154</v>
+      </c>
+      <c r="V53" t="b">
+        <v>1</v>
+      </c>
+      <c r="W53" t="s">
+        <v>137</v>
+      </c>
+      <c r="X53" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>45269.56583032408</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>45269.56583032408</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>20203040</v>
+      </c>
+      <c r="G54" t="s">
+        <v>148</v>
+      </c>
+      <c r="H54" t="s">
+        <v>128</v>
+      </c>
+      <c r="I54" t="s">
+        <v>149</v>
+      </c>
+      <c r="J54" t="s">
+        <v>102</v>
+      </c>
+      <c r="K54" t="s">
+        <v>114</v>
+      </c>
+      <c r="L54" t="s">
+        <v>150</v>
+      </c>
+      <c r="M54" t="s">
+        <v>158</v>
+      </c>
+      <c r="N54" t="s">
+        <v>132</v>
+      </c>
+      <c r="O54" t="s">
+        <v>133</v>
+      </c>
+      <c r="P54" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>153</v>
+      </c>
+      <c r="R54">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s">
+        <v>115</v>
+      </c>
+      <c r="T54" t="s">
+        <v>115</v>
+      </c>
+      <c r="U54" t="s">
+        <v>154</v>
+      </c>
+      <c r="V54" t="b">
+        <v>1</v>
+      </c>
+      <c r="W54" t="s">
+        <v>159</v>
+      </c>
+      <c r="X54" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>45269.57031137732</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>45269.57031137732</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>222222222</v>
+      </c>
+      <c r="G55" t="s">
+        <v>161</v>
+      </c>
+      <c r="H55" t="s">
+        <v>128</v>
+      </c>
+      <c r="I55" t="s">
+        <v>162</v>
+      </c>
+      <c r="J55" t="s">
+        <v>102</v>
+      </c>
+      <c r="K55" t="s">
+        <v>163</v>
+      </c>
+      <c r="L55" t="s">
+        <v>150</v>
+      </c>
+      <c r="M55" t="s">
+        <v>164</v>
+      </c>
+      <c r="N55" t="s">
+        <v>132</v>
+      </c>
+      <c r="O55" t="s">
+        <v>133</v>
+      </c>
+      <c r="P55" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>165</v>
+      </c>
+      <c r="R55" t="b">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>400</v>
+      </c>
+      <c r="T55">
+        <v>98</v>
+      </c>
+      <c r="U55" t="s">
+        <v>115</v>
+      </c>
+      <c r="V55" t="s">
+        <v>166</v>
+      </c>
+      <c r="W55" t="b">
+        <v>1</v>
+      </c>
+      <c r="X55" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>45269.57455839121</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>45269.57455839121</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>222222222</v>
+      </c>
+      <c r="G56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H56" t="s">
+        <v>128</v>
+      </c>
+      <c r="I56" t="s">
+        <v>162</v>
+      </c>
+      <c r="J56" t="s">
+        <v>102</v>
+      </c>
+      <c r="K56" t="s">
+        <v>163</v>
+      </c>
+      <c r="L56" t="s">
+        <v>150</v>
+      </c>
+      <c r="M56" t="s">
+        <v>169</v>
+      </c>
+      <c r="N56" t="s">
+        <v>132</v>
+      </c>
+      <c r="O56" t="s">
+        <v>133</v>
+      </c>
+      <c r="P56" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>165</v>
+      </c>
+      <c r="R56" t="b">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>400</v>
+      </c>
+      <c r="T56">
+        <v>98</v>
+      </c>
+      <c r="U56" t="s">
+        <v>115</v>
+      </c>
+      <c r="V56" t="s">
+        <v>166</v>
+      </c>
+      <c r="W56" t="b">
+        <v>1</v>
+      </c>
+      <c r="X56" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>45269.57515314815</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>45269.57515314815</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>222222222</v>
+      </c>
+      <c r="G57" t="s">
+        <v>161</v>
+      </c>
+      <c r="H57" t="s">
+        <v>128</v>
+      </c>
+      <c r="I57" t="s">
+        <v>162</v>
+      </c>
+      <c r="J57" t="s">
+        <v>102</v>
+      </c>
+      <c r="K57" t="s">
+        <v>163</v>
+      </c>
+      <c r="L57" t="s">
+        <v>150</v>
+      </c>
+      <c r="M57" t="s">
+        <v>171</v>
+      </c>
+      <c r="N57" t="s">
+        <v>132</v>
+      </c>
+      <c r="O57" t="s">
+        <v>133</v>
+      </c>
+      <c r="P57" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>165</v>
+      </c>
+      <c r="R57" t="b">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>400</v>
+      </c>
+      <c r="T57">
+        <v>98</v>
+      </c>
+      <c r="U57" t="s">
+        <v>115</v>
+      </c>
+      <c r="V57" t="s">
+        <v>166</v>
+      </c>
+      <c r="W57" t="b">
+        <v>1</v>
+      </c>
+      <c r="X57" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>45269.57622649305</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>45269.57622649305</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>173</v>
+      </c>
+      <c r="G58">
+        <v>111111111111111</v>
+      </c>
+      <c r="H58" t="s">
+        <v>174</v>
+      </c>
+      <c r="I58" t="s">
+        <v>128</v>
+      </c>
+      <c r="J58" t="s">
+        <v>175</v>
+      </c>
+      <c r="K58" t="s">
+        <v>102</v>
+      </c>
+      <c r="L58" t="s">
+        <v>163</v>
+      </c>
+      <c r="M58" t="s">
+        <v>150</v>
+      </c>
+      <c r="N58" t="s">
+        <v>176</v>
+      </c>
+      <c r="O58" t="s">
+        <v>132</v>
+      </c>
+      <c r="P58" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>177</v>
+      </c>
+      <c r="R58" t="s">
+        <v>178</v>
+      </c>
+      <c r="S58" t="s">
+        <v>179</v>
+      </c>
+      <c r="T58" t="s">
+        <v>107</v>
+      </c>
+      <c r="U58" t="s">
+        <v>180</v>
+      </c>
+      <c r="V58" t="s">
+        <v>112</v>
+      </c>
+      <c r="W58" t="s">
+        <v>181</v>
+      </c>
+      <c r="X58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>400</v>
+      </c>
+      <c r="AD58">
+        <v>98</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="1">
+        <v>45269.57843988426</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>45269.57843988426</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>173</v>
+      </c>
+      <c r="G59">
+        <v>111111111111111</v>
+      </c>
+      <c r="H59" t="s">
+        <v>174</v>
+      </c>
+      <c r="I59" t="s">
+        <v>128</v>
+      </c>
+      <c r="J59" t="s">
+        <v>175</v>
+      </c>
+      <c r="K59" t="s">
+        <v>102</v>
+      </c>
+      <c r="L59" t="s">
+        <v>163</v>
+      </c>
+      <c r="M59" t="s">
+        <v>150</v>
+      </c>
+      <c r="N59" t="s">
+        <v>184</v>
+      </c>
+      <c r="O59" t="s">
+        <v>132</v>
+      </c>
+      <c r="P59" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>177</v>
+      </c>
+      <c r="R59" t="s">
+        <v>178</v>
+      </c>
+      <c r="S59" t="s">
+        <v>179</v>
+      </c>
+      <c r="T59" t="s">
+        <v>107</v>
+      </c>
+      <c r="U59" t="s">
+        <v>180</v>
+      </c>
+      <c r="V59" t="s">
+        <v>112</v>
+      </c>
+      <c r="W59" t="s">
+        <v>181</v>
+      </c>
+      <c r="X59" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>400</v>
+      </c>
+      <c r="AD59">
+        <v>98</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="1">
+        <v>45269.581047534724</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>45269.581047534724</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>173</v>
+      </c>
+      <c r="G60">
+        <v>111111111111111</v>
+      </c>
+      <c r="H60" t="s">
+        <v>174</v>
+      </c>
+      <c r="I60" t="s">
+        <v>128</v>
+      </c>
+      <c r="J60" t="s">
+        <v>175</v>
+      </c>
+      <c r="K60" t="s">
+        <v>102</v>
+      </c>
+      <c r="L60" t="s">
+        <v>163</v>
+      </c>
+      <c r="M60" t="s">
+        <v>150</v>
+      </c>
+      <c r="N60" t="s">
+        <v>186</v>
+      </c>
+      <c r="O60" t="s">
+        <v>132</v>
+      </c>
+      <c r="P60" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>177</v>
+      </c>
+      <c r="R60" t="s">
+        <v>178</v>
+      </c>
+      <c r="S60" t="s">
+        <v>179</v>
+      </c>
+      <c r="T60" t="s">
+        <v>107</v>
+      </c>
+      <c r="U60" t="s">
+        <v>180</v>
+      </c>
+      <c r="V60" t="s">
+        <v>112</v>
+      </c>
+      <c r="W60" t="s">
+        <v>181</v>
+      </c>
+      <c r="X60" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB60">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="1">
+        <v>45269.58178234954</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>45269.58178234954</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61">
+        <v>111111111111111</v>
+      </c>
+      <c r="H61" t="s">
+        <v>174</v>
+      </c>
+      <c r="I61" t="s">
+        <v>128</v>
+      </c>
+      <c r="J61" t="s">
+        <v>175</v>
+      </c>
+      <c r="K61" t="s">
+        <v>102</v>
+      </c>
+      <c r="L61" t="s">
+        <v>163</v>
+      </c>
+      <c r="M61" t="s">
+        <v>150</v>
+      </c>
+      <c r="N61" t="s">
+        <v>188</v>
+      </c>
+      <c r="O61" t="s">
+        <v>132</v>
+      </c>
+      <c r="P61" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>177</v>
+      </c>
+      <c r="R61" t="s">
+        <v>178</v>
+      </c>
+      <c r="S61" t="s">
+        <v>179</v>
+      </c>
+      <c r="T61" t="s">
+        <v>107</v>
+      </c>
+      <c r="U61" t="s">
+        <v>180</v>
+      </c>
+      <c r="V61" t="s">
+        <v>112</v>
+      </c>
+      <c r="W61" t="s">
+        <v>181</v>
+      </c>
+      <c r="X61" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB61">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="1">
+        <v>45269.582145092594</v>
+      </c>
+      <c r="AL61" s="1">
+        <v>45269.582145092594</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>111111111111111</v>
+      </c>
+      <c r="G62" t="s">
+        <v>190</v>
+      </c>
+      <c r="H62" t="s">
+        <v>128</v>
+      </c>
+      <c r="I62" t="s">
+        <v>191</v>
+      </c>
+      <c r="J62" t="s">
+        <v>102</v>
+      </c>
+      <c r="K62" t="s">
+        <v>163</v>
+      </c>
+      <c r="L62" t="s">
+        <v>150</v>
+      </c>
+      <c r="M62" t="s">
+        <v>192</v>
+      </c>
+      <c r="N62" t="s">
+        <v>132</v>
+      </c>
+      <c r="O62" t="s">
+        <v>133</v>
+      </c>
+      <c r="P62" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>165</v>
+      </c>
+      <c r="R62" t="b">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>400</v>
+      </c>
+      <c r="T62">
+        <v>98</v>
+      </c>
+      <c r="U62" t="s">
+        <v>115</v>
+      </c>
+      <c r="V62" t="s">
+        <v>193</v>
+      </c>
+      <c r="W62" t="b">
+        <v>1</v>
+      </c>
+      <c r="X62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>45269.58603329861</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>45269.58603329861</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63">
+        <v>111111111111111</v>
+      </c>
+      <c r="H63" t="s">
+        <v>190</v>
+      </c>
+      <c r="I63" t="s">
+        <v>128</v>
+      </c>
+      <c r="J63" t="s">
+        <v>191</v>
+      </c>
+      <c r="K63" t="s">
+        <v>102</v>
+      </c>
+      <c r="L63" t="s">
+        <v>163</v>
+      </c>
+      <c r="M63" t="s">
+        <v>150</v>
+      </c>
+      <c r="N63" t="s">
+        <v>195</v>
+      </c>
+      <c r="O63" t="s">
+        <v>132</v>
+      </c>
+      <c r="P63" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>177</v>
+      </c>
+      <c r="R63" t="s">
+        <v>178</v>
+      </c>
+      <c r="S63" t="s">
+        <v>179</v>
+      </c>
+      <c r="T63" t="s">
+        <v>107</v>
+      </c>
+      <c r="U63" t="s">
+        <v>180</v>
+      </c>
+      <c r="V63" t="s">
+        <v>112</v>
+      </c>
+      <c r="W63" t="s">
+        <v>181</v>
+      </c>
+      <c r="X63" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>400</v>
+      </c>
+      <c r="AD63">
+        <v>98</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>45269.61585462963</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>45269.61585462963</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>123456789</v>
+      </c>
+      <c r="G64" t="s">
+        <v>197</v>
+      </c>
+      <c r="H64" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64" t="s">
+        <v>198</v>
+      </c>
+      <c r="J64" t="s">
+        <v>67</v>
+      </c>
+      <c r="K64" t="s">
+        <v>163</v>
+      </c>
+      <c r="L64" t="s">
+        <v>199</v>
+      </c>
+      <c r="M64" t="s">
+        <v>200</v>
+      </c>
+      <c r="N64" t="s">
+        <v>201</v>
+      </c>
+      <c r="O64" t="s">
+        <v>202</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>165</v>
+      </c>
+      <c r="R64" t="b">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>350</v>
+      </c>
+      <c r="T64">
+        <v>90.5</v>
+      </c>
+      <c r="U64" t="s">
+        <v>203</v>
+      </c>
+      <c r="V64" t="s">
+        <v>201</v>
+      </c>
+      <c r="W64" t="b">
+        <v>1</v>
+      </c>
+      <c r="X64" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>45269.83003604166</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>45269.83003604166</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>123456789</v>
+      </c>
+      <c r="G65" t="s">
+        <v>197</v>
+      </c>
+      <c r="H65" t="s">
+        <v>100</v>
+      </c>
+      <c r="I65" t="s">
+        <v>198</v>
+      </c>
+      <c r="J65" t="s">
+        <v>67</v>
+      </c>
+      <c r="K65" t="s">
+        <v>50</v>
+      </c>
+      <c r="L65" t="s">
+        <v>199</v>
+      </c>
+      <c r="M65" t="s">
+        <v>205</v>
+      </c>
+      <c r="N65" t="s">
+        <v>201</v>
+      </c>
+      <c r="O65" t="s">
+        <v>202</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>165</v>
+      </c>
+      <c r="R65" t="b">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>350</v>
+      </c>
+      <c r="T65">
+        <v>90.5</v>
+      </c>
+      <c r="U65" t="s">
+        <v>203</v>
+      </c>
+      <c r="V65" t="s">
+        <v>201</v>
+      </c>
+      <c r="W65" t="b">
+        <v>1</v>
+      </c>
+      <c r="X65" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>45269.83030381944</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>45269.83030381944</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>20202051521</v>
+      </c>
+      <c r="G66" t="s">
+        <v>207</v>
+      </c>
+      <c r="H66" t="s">
+        <v>100</v>
+      </c>
+      <c r="I66" t="s">
+        <v>208</v>
+      </c>
+      <c r="J66" t="s">
+        <v>67</v>
+      </c>
+      <c r="K66" t="s">
+        <v>50</v>
+      </c>
+      <c r="L66" t="s">
+        <v>209</v>
+      </c>
+      <c r="M66" t="s">
+        <v>210</v>
+      </c>
+      <c r="N66" t="s">
+        <v>106</v>
+      </c>
+      <c r="O66" t="s">
+        <v>107</v>
+      </c>
+      <c r="P66" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>103</v>
+      </c>
+      <c r="R66" t="b">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>400</v>
+      </c>
+      <c r="T66">
+        <v>98</v>
+      </c>
+      <c r="U66" t="s">
+        <v>115</v>
+      </c>
+      <c r="V66" t="s">
+        <v>211</v>
+      </c>
+      <c r="W66" t="b">
+        <v>1</v>
+      </c>
+      <c r="X66" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>45269.83342909723</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>45269.83342909723</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>214</v>
+      </c>
+      <c r="G67">
+        <v>20201115</v>
+      </c>
+      <c r="H67" t="s">
+        <v>99</v>
+      </c>
+      <c r="I67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J67" t="s">
+        <v>198</v>
+      </c>
+      <c r="K67" t="s">
+        <v>67</v>
+      </c>
+      <c r="L67" t="s">
+        <v>50</v>
+      </c>
+      <c r="M67" t="s">
+        <v>215</v>
+      </c>
+      <c r="N67" t="s">
+        <v>216</v>
+      </c>
+      <c r="O67" t="s">
+        <v>217</v>
+      </c>
+      <c r="P67" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>108</v>
+      </c>
+      <c r="R67" t="s">
+        <v>219</v>
+      </c>
+      <c r="S67" t="s">
+        <v>109</v>
+      </c>
+      <c r="T67" t="s">
+        <v>220</v>
+      </c>
+      <c r="U67" t="s">
+        <v>221</v>
+      </c>
+      <c r="V67" t="s">
+        <v>222</v>
+      </c>
+      <c r="W67" t="s">
+        <v>223</v>
+      </c>
+      <c r="X67" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB67">
+        <v>84</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="1">
+        <v>45269.87815333334</v>
+      </c>
+      <c r="AL67" s="1">
+        <v>45269.87815333334</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="254">
   <si>
     <t>_id</t>
   </si>
@@ -284,6 +284,496 @@
   </si>
   <si>
     <t>A+</t>
+  </si>
+  <si>
+    <t>12-06-2002</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>الرابعة</t>
+  </si>
+  <si>
+    <t>سكن مميز</t>
+  </si>
+  <si>
+    <t>"656b3435e526bd48afd61df4"</t>
+  </si>
+  <si>
+    <t>إخلاء اجازات</t>
+  </si>
+  <si>
+    <t>نهاية العام الدراسي</t>
+  </si>
+  <si>
+    <t>"65684fdc5852b0ed960549c4"</t>
+  </si>
+  <si>
+    <t>"657389f78ed79f2bff5c3c56"</t>
+  </si>
+  <si>
+    <t>30209138800696</t>
+  </si>
+  <si>
+    <t>يوسف وحيد</t>
+  </si>
+  <si>
+    <t>01/01/2001</t>
+  </si>
+  <si>
+    <t>السودان</t>
+  </si>
+  <si>
+    <t>option1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">9محمد جلال </t>
+  </si>
+  <si>
+    <t>joe@gmail.com</t>
+  </si>
+  <si>
+    <t>0237203431</t>
+  </si>
+  <si>
+    <t>01024870994</t>
+  </si>
+  <si>
+    <t>وحيد عبدالحميد</t>
+  </si>
+  <si>
+    <t>محاسب</t>
+  </si>
+  <si>
+    <t>01066678933</t>
+  </si>
+  <si>
+    <t>عبدالحميد فرحات</t>
+  </si>
+  <si>
+    <t>الجد</t>
+  </si>
+  <si>
+    <t>اولي</t>
+  </si>
+  <si>
+    <t>option2</t>
+  </si>
+  <si>
+    <t>قديم</t>
+  </si>
+  <si>
+    <t>joe123</t>
+  </si>
+  <si>
+    <t>541653421</t>
+  </si>
+  <si>
+    <t>سودان</t>
+  </si>
+  <si>
+    <t>"65745c6700a85479744def0c"</t>
+  </si>
+  <si>
+    <t>maxim alan</t>
+  </si>
+  <si>
+    <t>فرنسا</t>
+  </si>
+  <si>
+    <t>alan@gmail.com</t>
+  </si>
+  <si>
+    <t>Ordinary</t>
+  </si>
+  <si>
+    <t>alanlanon</t>
+  </si>
+  <si>
+    <t>5416534223</t>
+  </si>
+  <si>
+    <t>فرنسي</t>
+  </si>
+  <si>
+    <t>"657460f100a85479744def16"</t>
+  </si>
+  <si>
+    <t>روبيرت ليفا</t>
+  </si>
+  <si>
+    <t>06/16/1999</t>
+  </si>
+  <si>
+    <t>فرانكفورت</t>
+  </si>
+  <si>
+    <t>8محمد جلال</t>
+  </si>
+  <si>
+    <t>leva@gmail.com</t>
+  </si>
+  <si>
+    <t>22222222222323</t>
+  </si>
+  <si>
+    <t>01523624857</t>
+  </si>
+  <si>
+    <t>اعدادي</t>
+  </si>
+  <si>
+    <t>option11</t>
+  </si>
+  <si>
+    <t>leva.123</t>
+  </si>
+  <si>
+    <t>101010121212</t>
+  </si>
+  <si>
+    <t>الماني</t>
+  </si>
+  <si>
+    <t>"6574632200a85479744def1a"</t>
+  </si>
+  <si>
+    <t>levaaa@gmail.com</t>
+  </si>
+  <si>
+    <t>"6574636100a85479744def20"</t>
+  </si>
+  <si>
+    <t>leva1aa@gmail.com</t>
+  </si>
+  <si>
+    <t>"6574638200a85479744def22"</t>
+  </si>
+  <si>
+    <t>levaa@gmail.com</t>
+  </si>
+  <si>
+    <t>"657466c1f9610affaca54667"</t>
+  </si>
+  <si>
+    <t>lewandowski@gmail.com</t>
+  </si>
+  <si>
+    <t>"65746bdcf9610affaca54669"</t>
+  </si>
+  <si>
+    <t>كريم بنزيما</t>
+  </si>
+  <si>
+    <t>نييس</t>
+  </si>
+  <si>
+    <t>7محمد جلال</t>
+  </si>
+  <si>
+    <t>kimo@gmail.com</t>
+  </si>
+  <si>
+    <t>الثالثة</t>
+  </si>
+  <si>
+    <t>جيد جدا</t>
+  </si>
+  <si>
+    <t>kimokono</t>
+  </si>
+  <si>
+    <t>"65746cf7f9610affaca5466d"</t>
+  </si>
+  <si>
+    <t>kimooo@gmail.com</t>
+  </si>
+  <si>
+    <t>"65746e7af9610affaca54671"</t>
+  </si>
+  <si>
+    <t>kimoobenzo@gmail.com</t>
+  </si>
+  <si>
+    <t>1010121212</t>
+  </si>
+  <si>
+    <t>"65746fe9f9610affaca5467a"</t>
+  </si>
+  <si>
+    <t>ليو ميسي</t>
+  </si>
+  <si>
+    <t>ارجنتين</t>
+  </si>
+  <si>
+    <t>مسيحي</t>
+  </si>
+  <si>
+    <t>messi@gmail.com</t>
+  </si>
+  <si>
+    <t>علمي رياضة</t>
+  </si>
+  <si>
+    <t>Messi10</t>
+  </si>
+  <si>
+    <t>ارجنتيني</t>
+  </si>
+  <si>
+    <t>"6574701df9610affaca5467e"</t>
+  </si>
+  <si>
+    <t>messi10@gmail.com</t>
+  </si>
+  <si>
+    <t>"65747079f9610affaca54680"</t>
+  </si>
+  <si>
+    <t>messi30@gmail.com</t>
+  </si>
+  <si>
+    <t>"65747139f9610affaca54682"</t>
+  </si>
+  <si>
+    <t>30209138800697</t>
+  </si>
+  <si>
+    <t>كريستيانو</t>
+  </si>
+  <si>
+    <t>برتغال</t>
+  </si>
+  <si>
+    <t>CR7GOAT@gmail.com</t>
+  </si>
+  <si>
+    <t>رونالدو</t>
+  </si>
+  <si>
+    <t>90006968800321</t>
+  </si>
+  <si>
+    <t>عامل</t>
+  </si>
+  <si>
+    <t>رونالدو الكبير</t>
+  </si>
+  <si>
+    <t>2000369321357384</t>
+  </si>
+  <si>
+    <t>CR7Goat</t>
+  </si>
+  <si>
+    <t>"6574721af9610affaca54686"</t>
+  </si>
+  <si>
+    <t>CR7GoaT@gmail.com</t>
+  </si>
+  <si>
+    <t>"65747259f9610affaca5468a"</t>
+  </si>
+  <si>
+    <t>Cr7GoaT@gmail.com</t>
+  </si>
+  <si>
+    <t>"65747279f9610affaca5468e"</t>
+  </si>
+  <si>
+    <t>Cr7Goat@gmail.com</t>
+  </si>
+  <si>
+    <t>"657473c9f9610affaca54692"</t>
+  </si>
+  <si>
+    <t>مودريتش</t>
+  </si>
+  <si>
+    <t>كورواتيا</t>
+  </si>
+  <si>
+    <t>modric@gmail.com</t>
+  </si>
+  <si>
+    <t>mod1233</t>
+  </si>
+  <si>
+    <t>"65747dd9f9610affaca54698"</t>
+  </si>
+  <si>
+    <t>moodric@gmail.com</t>
+  </si>
+  <si>
+    <t>"6574c623000f1a54f36fd2ec"</t>
+  </si>
+  <si>
+    <t>عمر اشرف</t>
+  </si>
+  <si>
+    <t>الخارج</t>
+  </si>
+  <si>
+    <t>شارع السودان</t>
+  </si>
+  <si>
+    <t>kkkkkk@gmail.com</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>01097617655</t>
+  </si>
+  <si>
+    <t>مستجد</t>
+  </si>
+  <si>
+    <t>"6574c63a000f1a54f36fd2ee"</t>
+  </si>
+  <si>
+    <t>asdasdasd@gmail.com</t>
+  </si>
+  <si>
+    <t>"6574c74886b6b3610e09d46b"</t>
+  </si>
+  <si>
+    <t>مانويل نوير</t>
+  </si>
+  <si>
+    <t>المانيا</t>
+  </si>
+  <si>
+    <t>اول شارع فرانكفورت</t>
+  </si>
+  <si>
+    <t>manuel@gmail.com</t>
+  </si>
+  <si>
+    <t>13245</t>
+  </si>
+  <si>
+    <t>658342103</t>
+  </si>
+  <si>
+    <t>"6574d6603b15c991174be9ac"</t>
+  </si>
+  <si>
+    <t>30309138800696</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>YOUSSEPH@gmail.com</t>
+  </si>
+  <si>
+    <t>37203431</t>
+  </si>
+  <si>
+    <t>01024870664</t>
+  </si>
+  <si>
+    <t>30109138800696</t>
+  </si>
+  <si>
+    <t>01165498732</t>
+  </si>
+  <si>
+    <t>وحيد</t>
+  </si>
+  <si>
+    <t>الاب</t>
+  </si>
+  <si>
+    <t>68541635240120</t>
+  </si>
+  <si>
+    <t>01532165487</t>
+  </si>
+  <si>
+    <t>joejoejoe</t>
+  </si>
+  <si>
+    <t>"65b2803c2cd3649ddd44ccaf"</t>
+  </si>
+  <si>
+    <t>youssef@gmail.com</t>
+  </si>
+  <si>
+    <t>$2a$08$4qHSwhKxmggVNvR.KOjcx.LHJLTobQbae8tNUlLXAtIsuxFs7Reue</t>
+  </si>
+  <si>
+    <t>"65bff90bd34c9ca32763b29c"</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>طالب طالب</t>
+  </si>
+  <si>
+    <t>مصر القاهرة عين شمس عين شمس الشرقية</t>
+  </si>
+  <si>
+    <t>شارع على عبد الوهاب</t>
+  </si>
+  <si>
+    <t>student@gmail.com</t>
+  </si>
+  <si>
+    <t>012000000</t>
+  </si>
+  <si>
+    <t>ابو الطالب</t>
+  </si>
+  <si>
+    <t>شغل</t>
+  </si>
+  <si>
+    <t>0124521331</t>
+  </si>
+  <si>
+    <t>اداب</t>
+  </si>
+  <si>
+    <t>عادي</t>
+  </si>
+  <si>
+    <t>$2a$08$rlnwFGaSvq1WMzoagb01yOIoXvkiD22Mo2SlNTtJFmjAEss/F6u0W</t>
+  </si>
+  <si>
+    <t>"656b0c63e9089c229dc51068"</t>
+  </si>
+  <si>
+    <t>"65c00c2811d17048aae8c373"</t>
+  </si>
+  <si>
+    <t>7777777777777</t>
+  </si>
+  <si>
+    <t>2002/07/13</t>
+  </si>
+  <si>
+    <t>مصر القاهرة عين شمس</t>
+  </si>
+  <si>
+    <t>student2@gmail.com</t>
+  </si>
+  <si>
+    <t>7777777777</t>
+  </si>
+  <si>
+    <t>$2a$08$giOJ/OE2wKILWR5EZqbui.r52wZXHbmJiTVYksZlw4WKsXiEGUAKy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-2024
+</t>
   </si>
 </sst>
 </file>
@@ -661,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AY73"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -2132,8 +2622,6906 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12">
+        <v>202001012</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>54</v>
+      </c>
+      <c r="R12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z12">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>215</v>
+      </c>
+      <c r="AD12">
+        <v>86</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>45265.562138877314</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>45265.95291496528</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>202001013</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13" t="s">
+        <v>72</v>
+      </c>
+      <c r="T13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" t="s">
+        <v>73</v>
+      </c>
+      <c r="V13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z13">
+        <v>80</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>285</v>
+      </c>
+      <c r="AD13">
+        <v>96</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>45265.56317255787</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>45315.539472951394</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>202007013</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" t="s">
+        <v>73</v>
+      </c>
+      <c r="V14" t="s">
+        <v>57</v>
+      </c>
+      <c r="W14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z14">
+        <v>80</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>265</v>
+      </c>
+      <c r="AD14">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>45265.56400254629</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>45265.56400254629</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15">
+        <v>202007013</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" t="s">
+        <v>83</v>
+      </c>
+      <c r="T15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15" t="s">
+        <v>57</v>
+      </c>
+      <c r="W15" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z15">
+        <v>80</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>265</v>
+      </c>
+      <c r="AD15">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>45265.570913993055</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>45266.05301290509</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16">
+        <v>20007013</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>87</v>
+      </c>
+      <c r="R16" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" t="s">
+        <v>88</v>
+      </c>
+      <c r="T16" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16" t="s">
+        <v>89</v>
+      </c>
+      <c r="V16" t="s">
+        <v>57</v>
+      </c>
+      <c r="W16" t="s">
+        <v>57</v>
+      </c>
+      <c r="X16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z16">
+        <v>70</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB16">
+        <v>4.6</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>265</v>
+      </c>
+      <c r="AF16">
+        <v>56</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>45265.57341170139</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>45266.0810446875</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>202001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" t="s">
+        <v>100</v>
+      </c>
+      <c r="S17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T17" t="s">
+        <v>112</v>
+      </c>
+      <c r="U17" t="s">
+        <v>113</v>
+      </c>
+      <c r="V17" t="s">
+        <v>114</v>
+      </c>
+      <c r="W17" t="s">
+        <v>100</v>
+      </c>
+      <c r="X17" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>374</v>
+      </c>
+      <c r="AG17">
+        <v>91</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>45268.89323100694</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>45268.89323100694</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2020201</v>
+      </c>
+      <c r="G18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>105</v>
+      </c>
+      <c r="S18" t="s">
+        <v>105</v>
+      </c>
+      <c r="T18" t="s">
+        <v>116</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>374</v>
+      </c>
+      <c r="W18">
+        <v>91</v>
+      </c>
+      <c r="X18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>45269.51674788195</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>45269.51674788195</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>20203030</v>
+      </c>
+      <c r="G19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>138</v>
+      </c>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>400</v>
+      </c>
+      <c r="T19">
+        <v>98</v>
+      </c>
+      <c r="U19" t="s">
+        <v>117</v>
+      </c>
+      <c r="V19" t="s">
+        <v>139</v>
+      </c>
+      <c r="W19" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>45269.530207777774</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>45269.530207777774</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>20203030</v>
+      </c>
+      <c r="G20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" t="s">
+        <v>133</v>
+      </c>
+      <c r="M20" t="s">
+        <v>143</v>
+      </c>
+      <c r="N20" t="s">
+        <v>135</v>
+      </c>
+      <c r="O20" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>138</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>400</v>
+      </c>
+      <c r="T20">
+        <v>98</v>
+      </c>
+      <c r="U20" t="s">
+        <v>117</v>
+      </c>
+      <c r="V20" t="s">
+        <v>139</v>
+      </c>
+      <c r="W20" t="b">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>45269.53670037037</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>45269.53670037037</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>20203030</v>
+      </c>
+      <c r="G21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21" t="s">
+        <v>135</v>
+      </c>
+      <c r="O21" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>138</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>400</v>
+      </c>
+      <c r="T21">
+        <v>98</v>
+      </c>
+      <c r="U21" t="s">
+        <v>117</v>
+      </c>
+      <c r="V21" t="s">
+        <v>139</v>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>45269.53742655093</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>45269.53742655093</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>20203030</v>
+      </c>
+      <c r="G22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" t="s">
+        <v>133</v>
+      </c>
+      <c r="M22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N22" t="s">
+        <v>135</v>
+      </c>
+      <c r="O22" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>138</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>400</v>
+      </c>
+      <c r="T22">
+        <v>98</v>
+      </c>
+      <c r="U22" t="s">
+        <v>117</v>
+      </c>
+      <c r="V22" t="s">
+        <v>139</v>
+      </c>
+      <c r="W22" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>45269.537801631945</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>45269.537801631945</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>20203030</v>
+      </c>
+      <c r="G23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N23" t="s">
+        <v>135</v>
+      </c>
+      <c r="O23" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>138</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>400</v>
+      </c>
+      <c r="T23">
+        <v>98</v>
+      </c>
+      <c r="U23" t="s">
+        <v>117</v>
+      </c>
+      <c r="V23" t="s">
+        <v>139</v>
+      </c>
+      <c r="W23" t="b">
+        <v>1</v>
+      </c>
+      <c r="X23" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>45269.547419317125</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>45269.547419317125</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>20203030</v>
+      </c>
+      <c r="G24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" t="s">
+        <v>153</v>
+      </c>
+      <c r="M24" t="s">
+        <v>154</v>
+      </c>
+      <c r="N24" t="s">
+        <v>135</v>
+      </c>
+      <c r="O24" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>156</v>
+      </c>
+      <c r="R24">
+        <v>79</v>
+      </c>
+      <c r="S24" t="s">
+        <v>117</v>
+      </c>
+      <c r="T24" t="s">
+        <v>117</v>
+      </c>
+      <c r="U24" t="s">
+        <v>157</v>
+      </c>
+      <c r="V24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
+        <v>140</v>
+      </c>
+      <c r="X24" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>45269.56254633101</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>45269.56254633101</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>20203030</v>
+      </c>
+      <c r="G25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" t="s">
+        <v>153</v>
+      </c>
+      <c r="M25" t="s">
+        <v>159</v>
+      </c>
+      <c r="N25" t="s">
+        <v>135</v>
+      </c>
+      <c r="O25" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>156</v>
+      </c>
+      <c r="R25">
+        <v>79</v>
+      </c>
+      <c r="S25" t="s">
+        <v>117</v>
+      </c>
+      <c r="T25" t="s">
+        <v>117</v>
+      </c>
+      <c r="U25" t="s">
+        <v>157</v>
+      </c>
+      <c r="V25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
+        <v>140</v>
+      </c>
+      <c r="X25" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>45269.56583032408</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>45269.56583032408</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>20203040</v>
+      </c>
+      <c r="G26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" t="s">
+        <v>152</v>
+      </c>
+      <c r="J26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" t="s">
+        <v>161</v>
+      </c>
+      <c r="N26" t="s">
+        <v>135</v>
+      </c>
+      <c r="O26" t="s">
+        <v>136</v>
+      </c>
+      <c r="P26" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>156</v>
+      </c>
+      <c r="R26">
+        <v>79</v>
+      </c>
+      <c r="S26" t="s">
+        <v>117</v>
+      </c>
+      <c r="T26" t="s">
+        <v>117</v>
+      </c>
+      <c r="U26" t="s">
+        <v>157</v>
+      </c>
+      <c r="V26" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" t="s">
+        <v>162</v>
+      </c>
+      <c r="X26" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>45269.57031137732</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>45269.57031137732</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>222222222</v>
+      </c>
+      <c r="G27" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" t="s">
+        <v>166</v>
+      </c>
+      <c r="L27" t="s">
+        <v>153</v>
+      </c>
+      <c r="M27" t="s">
+        <v>167</v>
+      </c>
+      <c r="N27" t="s">
+        <v>135</v>
+      </c>
+      <c r="O27" t="s">
+        <v>136</v>
+      </c>
+      <c r="P27" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>168</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>400</v>
+      </c>
+      <c r="T27">
+        <v>98</v>
+      </c>
+      <c r="U27" t="s">
+        <v>117</v>
+      </c>
+      <c r="V27" t="s">
+        <v>169</v>
+      </c>
+      <c r="W27" t="b">
+        <v>1</v>
+      </c>
+      <c r="X27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>45269.57455839121</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>45269.57455839121</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>222222222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" t="s">
+        <v>153</v>
+      </c>
+      <c r="M28" t="s">
+        <v>172</v>
+      </c>
+      <c r="N28" t="s">
+        <v>135</v>
+      </c>
+      <c r="O28" t="s">
+        <v>136</v>
+      </c>
+      <c r="P28" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>168</v>
+      </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>400</v>
+      </c>
+      <c r="T28">
+        <v>98</v>
+      </c>
+      <c r="U28" t="s">
+        <v>117</v>
+      </c>
+      <c r="V28" t="s">
+        <v>169</v>
+      </c>
+      <c r="W28" t="b">
+        <v>1</v>
+      </c>
+      <c r="X28" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>45269.57515314815</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>45269.57515314815</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>222222222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" t="s">
+        <v>165</v>
+      </c>
+      <c r="J29" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" t="s">
+        <v>166</v>
+      </c>
+      <c r="L29" t="s">
+        <v>153</v>
+      </c>
+      <c r="M29" t="s">
+        <v>174</v>
+      </c>
+      <c r="N29" t="s">
+        <v>135</v>
+      </c>
+      <c r="O29" t="s">
+        <v>136</v>
+      </c>
+      <c r="P29" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>168</v>
+      </c>
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>400</v>
+      </c>
+      <c r="T29">
+        <v>98</v>
+      </c>
+      <c r="U29" t="s">
+        <v>117</v>
+      </c>
+      <c r="V29" t="s">
+        <v>169</v>
+      </c>
+      <c r="W29" t="b">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>45269.57622649305</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>45269.57622649305</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30">
+        <v>111111111111111</v>
+      </c>
+      <c r="H30" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" t="s">
+        <v>104</v>
+      </c>
+      <c r="L30" t="s">
+        <v>166</v>
+      </c>
+      <c r="M30" t="s">
+        <v>153</v>
+      </c>
+      <c r="N30" t="s">
+        <v>179</v>
+      </c>
+      <c r="O30" t="s">
+        <v>135</v>
+      </c>
+      <c r="P30" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>180</v>
+      </c>
+      <c r="R30" t="s">
+        <v>181</v>
+      </c>
+      <c r="S30" t="s">
+        <v>182</v>
+      </c>
+      <c r="T30" t="s">
+        <v>109</v>
+      </c>
+      <c r="U30" t="s">
+        <v>183</v>
+      </c>
+      <c r="V30" t="s">
+        <v>114</v>
+      </c>
+      <c r="W30" t="s">
+        <v>184</v>
+      </c>
+      <c r="X30" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>400</v>
+      </c>
+      <c r="AD30">
+        <v>98</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>45269.57843988426</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>45269.57843988426</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31">
+        <v>111111111111111</v>
+      </c>
+      <c r="H31" t="s">
+        <v>177</v>
+      </c>
+      <c r="I31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L31" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" t="s">
+        <v>153</v>
+      </c>
+      <c r="N31" t="s">
+        <v>187</v>
+      </c>
+      <c r="O31" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>180</v>
+      </c>
+      <c r="R31" t="s">
+        <v>181</v>
+      </c>
+      <c r="S31" t="s">
+        <v>182</v>
+      </c>
+      <c r="T31" t="s">
+        <v>109</v>
+      </c>
+      <c r="U31" t="s">
+        <v>183</v>
+      </c>
+      <c r="V31" t="s">
+        <v>114</v>
+      </c>
+      <c r="W31" t="s">
+        <v>184</v>
+      </c>
+      <c r="X31" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>400</v>
+      </c>
+      <c r="AD31">
+        <v>98</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>45269.581047534724</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>45269.581047534724</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32">
+        <v>111111111111111</v>
+      </c>
+      <c r="H32" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" t="s">
+        <v>178</v>
+      </c>
+      <c r="K32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L32" t="s">
+        <v>166</v>
+      </c>
+      <c r="M32" t="s">
+        <v>153</v>
+      </c>
+      <c r="N32" t="s">
+        <v>189</v>
+      </c>
+      <c r="O32" t="s">
+        <v>135</v>
+      </c>
+      <c r="P32" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>180</v>
+      </c>
+      <c r="R32" t="s">
+        <v>181</v>
+      </c>
+      <c r="S32" t="s">
+        <v>182</v>
+      </c>
+      <c r="T32" t="s">
+        <v>109</v>
+      </c>
+      <c r="U32" t="s">
+        <v>183</v>
+      </c>
+      <c r="V32" t="s">
+        <v>114</v>
+      </c>
+      <c r="W32" t="s">
+        <v>184</v>
+      </c>
+      <c r="X32" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB32">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>45269.58178234954</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>45269.58178234954</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33">
+        <v>111111111111111</v>
+      </c>
+      <c r="H33" t="s">
+        <v>177</v>
+      </c>
+      <c r="I33" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" t="s">
+        <v>178</v>
+      </c>
+      <c r="K33" t="s">
+        <v>104</v>
+      </c>
+      <c r="L33" t="s">
+        <v>166</v>
+      </c>
+      <c r="M33" t="s">
+        <v>153</v>
+      </c>
+      <c r="N33" t="s">
+        <v>191</v>
+      </c>
+      <c r="O33" t="s">
+        <v>135</v>
+      </c>
+      <c r="P33" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>180</v>
+      </c>
+      <c r="R33" t="s">
+        <v>181</v>
+      </c>
+      <c r="S33" t="s">
+        <v>182</v>
+      </c>
+      <c r="T33" t="s">
+        <v>109</v>
+      </c>
+      <c r="U33" t="s">
+        <v>183</v>
+      </c>
+      <c r="V33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W33" t="s">
+        <v>184</v>
+      </c>
+      <c r="X33" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB33">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>45269.582145092594</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>45269.582145092594</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>111111111111111</v>
+      </c>
+      <c r="G34" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" t="s">
+        <v>194</v>
+      </c>
+      <c r="J34" t="s">
+        <v>104</v>
+      </c>
+      <c r="K34" t="s">
+        <v>166</v>
+      </c>
+      <c r="L34" t="s">
+        <v>153</v>
+      </c>
+      <c r="M34" t="s">
+        <v>195</v>
+      </c>
+      <c r="N34" t="s">
+        <v>135</v>
+      </c>
+      <c r="O34" t="s">
+        <v>136</v>
+      </c>
+      <c r="P34" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>168</v>
+      </c>
+      <c r="R34" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>400</v>
+      </c>
+      <c r="T34">
+        <v>98</v>
+      </c>
+      <c r="U34" t="s">
+        <v>117</v>
+      </c>
+      <c r="V34" t="s">
+        <v>196</v>
+      </c>
+      <c r="W34" t="b">
+        <v>1</v>
+      </c>
+      <c r="X34" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>45269.58603329861</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>45269.58603329861</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35">
+        <v>111111111111111</v>
+      </c>
+      <c r="H35" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" t="s">
+        <v>194</v>
+      </c>
+      <c r="K35" t="s">
+        <v>104</v>
+      </c>
+      <c r="L35" t="s">
+        <v>166</v>
+      </c>
+      <c r="M35" t="s">
+        <v>153</v>
+      </c>
+      <c r="N35" t="s">
+        <v>198</v>
+      </c>
+      <c r="O35" t="s">
+        <v>135</v>
+      </c>
+      <c r="P35" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>180</v>
+      </c>
+      <c r="R35" t="s">
+        <v>181</v>
+      </c>
+      <c r="S35" t="s">
+        <v>182</v>
+      </c>
+      <c r="T35" t="s">
+        <v>109</v>
+      </c>
+      <c r="U35" t="s">
+        <v>183</v>
+      </c>
+      <c r="V35" t="s">
+        <v>114</v>
+      </c>
+      <c r="W35" t="s">
+        <v>184</v>
+      </c>
+      <c r="X35" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>400</v>
+      </c>
+      <c r="AD35">
+        <v>98</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>45269.61585462963</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>45269.61585462963</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>123456789</v>
+      </c>
+      <c r="G36" t="s">
+        <v>200</v>
+      </c>
+      <c r="H36" t="s">
+        <v>102</v>
+      </c>
+      <c r="I36" t="s">
+        <v>201</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" t="s">
+        <v>166</v>
+      </c>
+      <c r="L36" t="s">
+        <v>202</v>
+      </c>
+      <c r="M36" t="s">
+        <v>203</v>
+      </c>
+      <c r="N36" t="s">
+        <v>204</v>
+      </c>
+      <c r="O36" t="s">
+        <v>205</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>168</v>
+      </c>
+      <c r="R36" t="b">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>350</v>
+      </c>
+      <c r="T36">
+        <v>90.5</v>
+      </c>
+      <c r="U36" t="s">
+        <v>206</v>
+      </c>
+      <c r="V36" t="s">
+        <v>204</v>
+      </c>
+      <c r="W36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X36" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>45269.83003604166</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>45269.83003604166</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>123456789</v>
+      </c>
+      <c r="G37" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" t="s">
+        <v>201</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" t="s">
+        <v>202</v>
+      </c>
+      <c r="M37" t="s">
+        <v>208</v>
+      </c>
+      <c r="N37" t="s">
+        <v>204</v>
+      </c>
+      <c r="O37" t="s">
+        <v>205</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>168</v>
+      </c>
+      <c r="R37" t="b">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>350</v>
+      </c>
+      <c r="T37">
+        <v>90.5</v>
+      </c>
+      <c r="U37" t="s">
+        <v>206</v>
+      </c>
+      <c r="V37" t="s">
+        <v>204</v>
+      </c>
+      <c r="W37" t="b">
+        <v>1</v>
+      </c>
+      <c r="X37" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>45269.83030381944</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>45269.83030381944</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>20202051521</v>
+      </c>
+      <c r="G38" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" t="s">
+        <v>211</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" t="s">
+        <v>212</v>
+      </c>
+      <c r="M38" t="s">
+        <v>213</v>
+      </c>
+      <c r="N38" t="s">
+        <v>108</v>
+      </c>
+      <c r="O38" t="s">
+        <v>109</v>
+      </c>
+      <c r="P38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>105</v>
+      </c>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>400</v>
+      </c>
+      <c r="T38">
+        <v>98</v>
+      </c>
+      <c r="U38" t="s">
+        <v>117</v>
+      </c>
+      <c r="V38" t="s">
+        <v>214</v>
+      </c>
+      <c r="W38" t="b">
+        <v>1</v>
+      </c>
+      <c r="X38" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>45269.83342909723</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>45269.83342909723</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>217</v>
+      </c>
+      <c r="G39">
+        <v>20201115</v>
+      </c>
+      <c r="H39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" t="s">
+        <v>201</v>
+      </c>
+      <c r="K39" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" t="s">
+        <v>218</v>
+      </c>
+      <c r="N39" t="s">
+        <v>219</v>
+      </c>
+      <c r="O39" t="s">
+        <v>220</v>
+      </c>
+      <c r="P39" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>110</v>
+      </c>
+      <c r="R39" t="s">
+        <v>222</v>
+      </c>
+      <c r="S39" t="s">
+        <v>111</v>
+      </c>
+      <c r="T39" t="s">
+        <v>223</v>
+      </c>
+      <c r="U39" t="s">
+        <v>224</v>
+      </c>
+      <c r="V39" t="s">
+        <v>225</v>
+      </c>
+      <c r="W39" t="s">
+        <v>226</v>
+      </c>
+      <c r="X39" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB39">
+        <v>84</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>45269.87815333334</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>45269.87815333334</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" t="s">
+        <v>230</v>
+      </c>
+      <c r="H40" t="s">
+        <v>231</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>45316.65106775463</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>45316.65106775463</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41">
+        <v>202001012</v>
+      </c>
+      <c r="H41" t="s">
+        <v>234</v>
+      </c>
+      <c r="I41" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" t="s">
+        <v>235</v>
+      </c>
+      <c r="N41" t="s">
+        <v>236</v>
+      </c>
+      <c r="O41" t="s">
+        <v>237</v>
+      </c>
+      <c r="P41" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>238</v>
+      </c>
+      <c r="R41" t="s">
+        <v>239</v>
+      </c>
+      <c r="S41" t="s">
+        <v>56</v>
+      </c>
+      <c r="T41" t="s">
+        <v>240</v>
+      </c>
+      <c r="U41" t="s">
+        <v>241</v>
+      </c>
+      <c r="V41" t="s">
+        <v>242</v>
+      </c>
+      <c r="W41" t="s">
+        <v>155</v>
+      </c>
+      <c r="X41" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y41">
+        <v>85</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>45325.91666666667</v>
+      </c>
+      <c r="AM41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>45326.86976850695</v>
+      </c>
+      <c r="AP41" s="1">
+        <v>45326.86976850695</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42">
+        <v>202001012</v>
+      </c>
+      <c r="H42" t="s">
+        <v>234</v>
+      </c>
+      <c r="I42" t="s">
+        <v>248</v>
+      </c>
+      <c r="J42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" t="s">
+        <v>50</v>
+      </c>
+      <c r="M42" t="s">
+        <v>249</v>
+      </c>
+      <c r="N42" t="s">
+        <v>236</v>
+      </c>
+      <c r="O42" t="s">
+        <v>250</v>
+      </c>
+      <c r="P42" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>238</v>
+      </c>
+      <c r="R42" t="s">
+        <v>239</v>
+      </c>
+      <c r="S42" t="s">
+        <v>251</v>
+      </c>
+      <c r="T42" t="s">
+        <v>240</v>
+      </c>
+      <c r="U42" t="s">
+        <v>241</v>
+      </c>
+      <c r="V42" t="s">
+        <v>242</v>
+      </c>
+      <c r="W42" t="s">
+        <v>155</v>
+      </c>
+      <c r="X42" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y42">
+        <v>85</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>45325.91666666667</v>
+      </c>
+      <c r="AM42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>45326.926397303236</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>45326.926397303236</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43">
+        <v>202001012</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" t="s">
+        <v>51</v>
+      </c>
+      <c r="N43" t="s">
+        <v>51</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>54</v>
+      </c>
+      <c r="R43" t="s">
+        <v>55</v>
+      </c>
+      <c r="S43" t="s">
+        <v>56</v>
+      </c>
+      <c r="T43" t="s">
+        <v>57</v>
+      </c>
+      <c r="U43" t="s">
+        <v>58</v>
+      </c>
+      <c r="V43" t="s">
+        <v>57</v>
+      </c>
+      <c r="W43" t="s">
+        <v>57</v>
+      </c>
+      <c r="X43" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z43">
+        <v>80</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>215</v>
+      </c>
+      <c r="AD43">
+        <v>86</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>45265.562138877314</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>45265.95291496528</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44">
+        <v>202001013</v>
+      </c>
+      <c r="H44" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" t="s">
+        <v>67</v>
+      </c>
+      <c r="L44" t="s">
+        <v>50</v>
+      </c>
+      <c r="M44" t="s">
+        <v>68</v>
+      </c>
+      <c r="N44" t="s">
+        <v>51</v>
+      </c>
+      <c r="O44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>70</v>
+      </c>
+      <c r="R44" t="s">
+        <v>71</v>
+      </c>
+      <c r="S44" t="s">
+        <v>72</v>
+      </c>
+      <c r="T44" t="s">
+        <v>57</v>
+      </c>
+      <c r="U44" t="s">
+        <v>73</v>
+      </c>
+      <c r="V44" t="s">
+        <v>57</v>
+      </c>
+      <c r="W44" t="s">
+        <v>57</v>
+      </c>
+      <c r="X44" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z44">
+        <v>80</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>285</v>
+      </c>
+      <c r="AD44">
+        <v>96</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>45265.56317255787</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>45315.539472951394</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45">
+        <v>202007013</v>
+      </c>
+      <c r="H45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" t="s">
+        <v>48</v>
+      </c>
+      <c r="K45" t="s">
+        <v>67</v>
+      </c>
+      <c r="L45" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45" t="s">
+        <v>77</v>
+      </c>
+      <c r="N45" t="s">
+        <v>51</v>
+      </c>
+      <c r="O45" t="s">
+        <v>78</v>
+      </c>
+      <c r="P45" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>70</v>
+      </c>
+      <c r="R45" t="s">
+        <v>79</v>
+      </c>
+      <c r="S45" t="s">
+        <v>72</v>
+      </c>
+      <c r="T45" t="s">
+        <v>57</v>
+      </c>
+      <c r="U45" t="s">
+        <v>73</v>
+      </c>
+      <c r="V45" t="s">
+        <v>57</v>
+      </c>
+      <c r="W45" t="s">
+        <v>57</v>
+      </c>
+      <c r="X45" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z45">
+        <v>80</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>265</v>
+      </c>
+      <c r="AD45">
+        <v>56</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>45265.56400254629</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>45265.56400254629</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46">
+        <v>202007013</v>
+      </c>
+      <c r="H46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46" t="s">
+        <v>49</v>
+      </c>
+      <c r="L46" t="s">
+        <v>50</v>
+      </c>
+      <c r="M46" t="s">
+        <v>77</v>
+      </c>
+      <c r="N46" t="s">
+        <v>51</v>
+      </c>
+      <c r="O46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P46" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>70</v>
+      </c>
+      <c r="R46" t="s">
+        <v>79</v>
+      </c>
+      <c r="S46" t="s">
+        <v>83</v>
+      </c>
+      <c r="T46" t="s">
+        <v>57</v>
+      </c>
+      <c r="U46" t="s">
+        <v>73</v>
+      </c>
+      <c r="V46" t="s">
+        <v>57</v>
+      </c>
+      <c r="W46" t="s">
+        <v>57</v>
+      </c>
+      <c r="X46" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z46">
+        <v>80</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>265</v>
+      </c>
+      <c r="AD46">
+        <v>56</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>45265.570913993055</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>45266.05301290509</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47">
+        <v>20007013</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" t="s">
+        <v>48</v>
+      </c>
+      <c r="K47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L47" t="s">
+        <v>50</v>
+      </c>
+      <c r="M47" t="s">
+        <v>51</v>
+      </c>
+      <c r="N47" t="s">
+        <v>51</v>
+      </c>
+      <c r="O47" t="s">
+        <v>86</v>
+      </c>
+      <c r="P47" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>87</v>
+      </c>
+      <c r="R47" t="s">
+        <v>79</v>
+      </c>
+      <c r="S47" t="s">
+        <v>88</v>
+      </c>
+      <c r="T47" t="s">
+        <v>57</v>
+      </c>
+      <c r="U47" t="s">
+        <v>89</v>
+      </c>
+      <c r="V47" t="s">
+        <v>57</v>
+      </c>
+      <c r="W47" t="s">
+        <v>57</v>
+      </c>
+      <c r="X47" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z47">
+        <v>70</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB47">
+        <v>4.6</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>265</v>
+      </c>
+      <c r="AF47">
+        <v>56</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>45265.57341170139</v>
+      </c>
+      <c r="AR47" s="1">
+        <v>45266.0810446875</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48">
+        <v>202001</v>
+      </c>
+      <c r="H48" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" t="s">
+        <v>102</v>
+      </c>
+      <c r="J48" t="s">
+        <v>103</v>
+      </c>
+      <c r="K48" t="s">
+        <v>104</v>
+      </c>
+      <c r="L48" t="s">
+        <v>105</v>
+      </c>
+      <c r="M48" t="s">
+        <v>106</v>
+      </c>
+      <c r="N48" t="s">
+        <v>107</v>
+      </c>
+      <c r="O48" t="s">
+        <v>108</v>
+      </c>
+      <c r="P48" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>110</v>
+      </c>
+      <c r="R48" t="s">
+        <v>100</v>
+      </c>
+      <c r="S48" t="s">
+        <v>111</v>
+      </c>
+      <c r="T48" t="s">
+        <v>112</v>
+      </c>
+      <c r="U48" t="s">
+        <v>113</v>
+      </c>
+      <c r="V48" t="s">
+        <v>114</v>
+      </c>
+      <c r="W48" t="s">
+        <v>100</v>
+      </c>
+      <c r="X48" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>374</v>
+      </c>
+      <c r="AG48">
+        <v>91</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>45268.89323100694</v>
+      </c>
+      <c r="AR48" s="1">
+        <v>45268.89323100694</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>2020201</v>
+      </c>
+      <c r="G49" t="s">
+        <v>122</v>
+      </c>
+      <c r="H49" t="s">
+        <v>102</v>
+      </c>
+      <c r="I49" t="s">
+        <v>123</v>
+      </c>
+      <c r="J49" t="s">
+        <v>104</v>
+      </c>
+      <c r="K49" t="s">
+        <v>105</v>
+      </c>
+      <c r="L49" t="s">
+        <v>106</v>
+      </c>
+      <c r="M49" t="s">
+        <v>124</v>
+      </c>
+      <c r="N49" t="s">
+        <v>108</v>
+      </c>
+      <c r="O49" t="s">
+        <v>109</v>
+      </c>
+      <c r="P49" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>105</v>
+      </c>
+      <c r="S49" t="s">
+        <v>105</v>
+      </c>
+      <c r="T49" t="s">
+        <v>116</v>
+      </c>
+      <c r="U49" t="b">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>374</v>
+      </c>
+      <c r="W49">
+        <v>91</v>
+      </c>
+      <c r="X49" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>45269.51674788195</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>45269.51674788195</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>20203030</v>
+      </c>
+      <c r="G50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" t="s">
+        <v>131</v>
+      </c>
+      <c r="I50" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" t="s">
+        <v>116</v>
+      </c>
+      <c r="K50" t="s">
+        <v>116</v>
+      </c>
+      <c r="L50" t="s">
+        <v>133</v>
+      </c>
+      <c r="M50" t="s">
+        <v>134</v>
+      </c>
+      <c r="N50" t="s">
+        <v>135</v>
+      </c>
+      <c r="O50" t="s">
+        <v>136</v>
+      </c>
+      <c r="P50" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>138</v>
+      </c>
+      <c r="R50" t="b">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>400</v>
+      </c>
+      <c r="T50">
+        <v>98</v>
+      </c>
+      <c r="U50" t="s">
+        <v>117</v>
+      </c>
+      <c r="V50" t="s">
+        <v>139</v>
+      </c>
+      <c r="W50" t="b">
+        <v>1</v>
+      </c>
+      <c r="X50" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>45269.530207777774</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>45269.530207777774</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>20203030</v>
+      </c>
+      <c r="G51" t="s">
+        <v>130</v>
+      </c>
+      <c r="H51" t="s">
+        <v>131</v>
+      </c>
+      <c r="I51" t="s">
+        <v>132</v>
+      </c>
+      <c r="J51" t="s">
+        <v>104</v>
+      </c>
+      <c r="K51" t="s">
+        <v>116</v>
+      </c>
+      <c r="L51" t="s">
+        <v>133</v>
+      </c>
+      <c r="M51" t="s">
+        <v>143</v>
+      </c>
+      <c r="N51" t="s">
+        <v>135</v>
+      </c>
+      <c r="O51" t="s">
+        <v>136</v>
+      </c>
+      <c r="P51" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>138</v>
+      </c>
+      <c r="R51" t="b">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>400</v>
+      </c>
+      <c r="T51">
+        <v>98</v>
+      </c>
+      <c r="U51" t="s">
+        <v>117</v>
+      </c>
+      <c r="V51" t="s">
+        <v>139</v>
+      </c>
+      <c r="W51" t="b">
+        <v>1</v>
+      </c>
+      <c r="X51" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>45269.53670037037</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>45269.53670037037</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>20203030</v>
+      </c>
+      <c r="G52" t="s">
+        <v>130</v>
+      </c>
+      <c r="H52" t="s">
+        <v>131</v>
+      </c>
+      <c r="I52" t="s">
+        <v>132</v>
+      </c>
+      <c r="J52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K52" t="s">
+        <v>116</v>
+      </c>
+      <c r="L52" t="s">
+        <v>133</v>
+      </c>
+      <c r="M52" t="s">
+        <v>145</v>
+      </c>
+      <c r="N52" t="s">
+        <v>135</v>
+      </c>
+      <c r="O52" t="s">
+        <v>136</v>
+      </c>
+      <c r="P52" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>138</v>
+      </c>
+      <c r="R52" t="b">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>400</v>
+      </c>
+      <c r="T52">
+        <v>98</v>
+      </c>
+      <c r="U52" t="s">
+        <v>117</v>
+      </c>
+      <c r="V52" t="s">
+        <v>139</v>
+      </c>
+      <c r="W52" t="b">
+        <v>1</v>
+      </c>
+      <c r="X52" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>45269.53742655093</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>45269.53742655093</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>20203030</v>
+      </c>
+      <c r="G53" t="s">
+        <v>130</v>
+      </c>
+      <c r="H53" t="s">
+        <v>131</v>
+      </c>
+      <c r="I53" t="s">
+        <v>132</v>
+      </c>
+      <c r="J53" t="s">
+        <v>104</v>
+      </c>
+      <c r="K53" t="s">
+        <v>116</v>
+      </c>
+      <c r="L53" t="s">
+        <v>133</v>
+      </c>
+      <c r="M53" t="s">
+        <v>147</v>
+      </c>
+      <c r="N53" t="s">
+        <v>135</v>
+      </c>
+      <c r="O53" t="s">
+        <v>136</v>
+      </c>
+      <c r="P53" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>138</v>
+      </c>
+      <c r="R53" t="b">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>400</v>
+      </c>
+      <c r="T53">
+        <v>98</v>
+      </c>
+      <c r="U53" t="s">
+        <v>117</v>
+      </c>
+      <c r="V53" t="s">
+        <v>139</v>
+      </c>
+      <c r="W53" t="b">
+        <v>1</v>
+      </c>
+      <c r="X53" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>45269.537801631945</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>45269.537801631945</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>20203030</v>
+      </c>
+      <c r="G54" t="s">
+        <v>130</v>
+      </c>
+      <c r="H54" t="s">
+        <v>131</v>
+      </c>
+      <c r="I54" t="s">
+        <v>132</v>
+      </c>
+      <c r="J54" t="s">
+        <v>104</v>
+      </c>
+      <c r="K54" t="s">
+        <v>116</v>
+      </c>
+      <c r="L54" t="s">
+        <v>133</v>
+      </c>
+      <c r="M54" t="s">
+        <v>149</v>
+      </c>
+      <c r="N54" t="s">
+        <v>135</v>
+      </c>
+      <c r="O54" t="s">
+        <v>136</v>
+      </c>
+      <c r="P54" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>138</v>
+      </c>
+      <c r="R54" t="b">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>400</v>
+      </c>
+      <c r="T54">
+        <v>98</v>
+      </c>
+      <c r="U54" t="s">
+        <v>117</v>
+      </c>
+      <c r="V54" t="s">
+        <v>139</v>
+      </c>
+      <c r="W54" t="b">
+        <v>1</v>
+      </c>
+      <c r="X54" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>45269.547419317125</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>45269.547419317125</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>20203030</v>
+      </c>
+      <c r="G55" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" t="s">
+        <v>131</v>
+      </c>
+      <c r="I55" t="s">
+        <v>152</v>
+      </c>
+      <c r="J55" t="s">
+        <v>104</v>
+      </c>
+      <c r="K55" t="s">
+        <v>116</v>
+      </c>
+      <c r="L55" t="s">
+        <v>153</v>
+      </c>
+      <c r="M55" t="s">
+        <v>154</v>
+      </c>
+      <c r="N55" t="s">
+        <v>135</v>
+      </c>
+      <c r="O55" t="s">
+        <v>136</v>
+      </c>
+      <c r="P55" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>156</v>
+      </c>
+      <c r="R55">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s">
+        <v>117</v>
+      </c>
+      <c r="T55" t="s">
+        <v>117</v>
+      </c>
+      <c r="U55" t="s">
+        <v>157</v>
+      </c>
+      <c r="V55" t="b">
+        <v>1</v>
+      </c>
+      <c r="W55" t="s">
+        <v>140</v>
+      </c>
+      <c r="X55" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>45269.56254633101</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>45269.56254633101</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>20203030</v>
+      </c>
+      <c r="G56" t="s">
+        <v>151</v>
+      </c>
+      <c r="H56" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56" t="s">
+        <v>152</v>
+      </c>
+      <c r="J56" t="s">
+        <v>104</v>
+      </c>
+      <c r="K56" t="s">
+        <v>116</v>
+      </c>
+      <c r="L56" t="s">
+        <v>153</v>
+      </c>
+      <c r="M56" t="s">
+        <v>159</v>
+      </c>
+      <c r="N56" t="s">
+        <v>135</v>
+      </c>
+      <c r="O56" t="s">
+        <v>136</v>
+      </c>
+      <c r="P56" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>156</v>
+      </c>
+      <c r="R56">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s">
+        <v>117</v>
+      </c>
+      <c r="T56" t="s">
+        <v>117</v>
+      </c>
+      <c r="U56" t="s">
+        <v>157</v>
+      </c>
+      <c r="V56" t="b">
+        <v>1</v>
+      </c>
+      <c r="W56" t="s">
+        <v>140</v>
+      </c>
+      <c r="X56" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>45269.56583032408</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>45269.56583032408</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>20203040</v>
+      </c>
+      <c r="G57" t="s">
+        <v>151</v>
+      </c>
+      <c r="H57" t="s">
+        <v>131</v>
+      </c>
+      <c r="I57" t="s">
+        <v>152</v>
+      </c>
+      <c r="J57" t="s">
+        <v>104</v>
+      </c>
+      <c r="K57" t="s">
+        <v>116</v>
+      </c>
+      <c r="L57" t="s">
+        <v>153</v>
+      </c>
+      <c r="M57" t="s">
+        <v>161</v>
+      </c>
+      <c r="N57" t="s">
+        <v>135</v>
+      </c>
+      <c r="O57" t="s">
+        <v>136</v>
+      </c>
+      <c r="P57" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>156</v>
+      </c>
+      <c r="R57">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s">
+        <v>117</v>
+      </c>
+      <c r="T57" t="s">
+        <v>117</v>
+      </c>
+      <c r="U57" t="s">
+        <v>157</v>
+      </c>
+      <c r="V57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W57" t="s">
+        <v>162</v>
+      </c>
+      <c r="X57" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>45269.57031137732</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>45269.57031137732</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>222222222</v>
+      </c>
+      <c r="G58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H58" t="s">
+        <v>131</v>
+      </c>
+      <c r="I58" t="s">
+        <v>165</v>
+      </c>
+      <c r="J58" t="s">
+        <v>104</v>
+      </c>
+      <c r="K58" t="s">
+        <v>166</v>
+      </c>
+      <c r="L58" t="s">
+        <v>153</v>
+      </c>
+      <c r="M58" t="s">
+        <v>167</v>
+      </c>
+      <c r="N58" t="s">
+        <v>135</v>
+      </c>
+      <c r="O58" t="s">
+        <v>136</v>
+      </c>
+      <c r="P58" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>168</v>
+      </c>
+      <c r="R58" t="b">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>400</v>
+      </c>
+      <c r="T58">
+        <v>98</v>
+      </c>
+      <c r="U58" t="s">
+        <v>117</v>
+      </c>
+      <c r="V58" t="s">
+        <v>169</v>
+      </c>
+      <c r="W58" t="b">
+        <v>1</v>
+      </c>
+      <c r="X58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>45269.57455839121</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>45269.57455839121</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>222222222</v>
+      </c>
+      <c r="G59" t="s">
+        <v>164</v>
+      </c>
+      <c r="H59" t="s">
+        <v>131</v>
+      </c>
+      <c r="I59" t="s">
+        <v>165</v>
+      </c>
+      <c r="J59" t="s">
+        <v>104</v>
+      </c>
+      <c r="K59" t="s">
+        <v>166</v>
+      </c>
+      <c r="L59" t="s">
+        <v>153</v>
+      </c>
+      <c r="M59" t="s">
+        <v>172</v>
+      </c>
+      <c r="N59" t="s">
+        <v>135</v>
+      </c>
+      <c r="O59" t="s">
+        <v>136</v>
+      </c>
+      <c r="P59" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>168</v>
+      </c>
+      <c r="R59" t="b">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>400</v>
+      </c>
+      <c r="T59">
+        <v>98</v>
+      </c>
+      <c r="U59" t="s">
+        <v>117</v>
+      </c>
+      <c r="V59" t="s">
+        <v>169</v>
+      </c>
+      <c r="W59" t="b">
+        <v>1</v>
+      </c>
+      <c r="X59" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>45269.57515314815</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>45269.57515314815</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>222222222</v>
+      </c>
+      <c r="G60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H60" t="s">
+        <v>131</v>
+      </c>
+      <c r="I60" t="s">
+        <v>165</v>
+      </c>
+      <c r="J60" t="s">
+        <v>104</v>
+      </c>
+      <c r="K60" t="s">
+        <v>166</v>
+      </c>
+      <c r="L60" t="s">
+        <v>153</v>
+      </c>
+      <c r="M60" t="s">
+        <v>174</v>
+      </c>
+      <c r="N60" t="s">
+        <v>135</v>
+      </c>
+      <c r="O60" t="s">
+        <v>136</v>
+      </c>
+      <c r="P60" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>168</v>
+      </c>
+      <c r="R60" t="b">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>400</v>
+      </c>
+      <c r="T60">
+        <v>98</v>
+      </c>
+      <c r="U60" t="s">
+        <v>117</v>
+      </c>
+      <c r="V60" t="s">
+        <v>169</v>
+      </c>
+      <c r="W60" t="b">
+        <v>1</v>
+      </c>
+      <c r="X60" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>45269.57622649305</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>45269.57622649305</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>176</v>
+      </c>
+      <c r="G61">
+        <v>111111111111111</v>
+      </c>
+      <c r="H61" t="s">
+        <v>177</v>
+      </c>
+      <c r="I61" t="s">
+        <v>131</v>
+      </c>
+      <c r="J61" t="s">
+        <v>178</v>
+      </c>
+      <c r="K61" t="s">
+        <v>104</v>
+      </c>
+      <c r="L61" t="s">
+        <v>166</v>
+      </c>
+      <c r="M61" t="s">
+        <v>153</v>
+      </c>
+      <c r="N61" t="s">
+        <v>179</v>
+      </c>
+      <c r="O61" t="s">
+        <v>135</v>
+      </c>
+      <c r="P61" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>180</v>
+      </c>
+      <c r="R61" t="s">
+        <v>181</v>
+      </c>
+      <c r="S61" t="s">
+        <v>182</v>
+      </c>
+      <c r="T61" t="s">
+        <v>109</v>
+      </c>
+      <c r="U61" t="s">
+        <v>183</v>
+      </c>
+      <c r="V61" t="s">
+        <v>114</v>
+      </c>
+      <c r="W61" t="s">
+        <v>184</v>
+      </c>
+      <c r="X61" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>400</v>
+      </c>
+      <c r="AD61">
+        <v>98</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="1">
+        <v>45269.57843988426</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>45269.57843988426</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>176</v>
+      </c>
+      <c r="G62">
+        <v>111111111111111</v>
+      </c>
+      <c r="H62" t="s">
+        <v>177</v>
+      </c>
+      <c r="I62" t="s">
+        <v>131</v>
+      </c>
+      <c r="J62" t="s">
+        <v>178</v>
+      </c>
+      <c r="K62" t="s">
+        <v>104</v>
+      </c>
+      <c r="L62" t="s">
+        <v>166</v>
+      </c>
+      <c r="M62" t="s">
+        <v>153</v>
+      </c>
+      <c r="N62" t="s">
+        <v>187</v>
+      </c>
+      <c r="O62" t="s">
+        <v>135</v>
+      </c>
+      <c r="P62" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>180</v>
+      </c>
+      <c r="R62" t="s">
+        <v>181</v>
+      </c>
+      <c r="S62" t="s">
+        <v>182</v>
+      </c>
+      <c r="T62" t="s">
+        <v>109</v>
+      </c>
+      <c r="U62" t="s">
+        <v>183</v>
+      </c>
+      <c r="V62" t="s">
+        <v>114</v>
+      </c>
+      <c r="W62" t="s">
+        <v>184</v>
+      </c>
+      <c r="X62" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>400</v>
+      </c>
+      <c r="AD62">
+        <v>98</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="1">
+        <v>45269.581047534724</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>45269.581047534724</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>176</v>
+      </c>
+      <c r="G63">
+        <v>111111111111111</v>
+      </c>
+      <c r="H63" t="s">
+        <v>177</v>
+      </c>
+      <c r="I63" t="s">
+        <v>131</v>
+      </c>
+      <c r="J63" t="s">
+        <v>178</v>
+      </c>
+      <c r="K63" t="s">
+        <v>104</v>
+      </c>
+      <c r="L63" t="s">
+        <v>166</v>
+      </c>
+      <c r="M63" t="s">
+        <v>153</v>
+      </c>
+      <c r="N63" t="s">
+        <v>189</v>
+      </c>
+      <c r="O63" t="s">
+        <v>135</v>
+      </c>
+      <c r="P63" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>180</v>
+      </c>
+      <c r="R63" t="s">
+        <v>181</v>
+      </c>
+      <c r="S63" t="s">
+        <v>182</v>
+      </c>
+      <c r="T63" t="s">
+        <v>109</v>
+      </c>
+      <c r="U63" t="s">
+        <v>183</v>
+      </c>
+      <c r="V63" t="s">
+        <v>114</v>
+      </c>
+      <c r="W63" t="s">
+        <v>184</v>
+      </c>
+      <c r="X63" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB63">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="1">
+        <v>45269.58178234954</v>
+      </c>
+      <c r="AL63" s="1">
+        <v>45269.58178234954</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64">
+        <v>111111111111111</v>
+      </c>
+      <c r="H64" t="s">
+        <v>177</v>
+      </c>
+      <c r="I64" t="s">
+        <v>131</v>
+      </c>
+      <c r="J64" t="s">
+        <v>178</v>
+      </c>
+      <c r="K64" t="s">
+        <v>104</v>
+      </c>
+      <c r="L64" t="s">
+        <v>166</v>
+      </c>
+      <c r="M64" t="s">
+        <v>153</v>
+      </c>
+      <c r="N64" t="s">
+        <v>191</v>
+      </c>
+      <c r="O64" t="s">
+        <v>135</v>
+      </c>
+      <c r="P64" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>180</v>
+      </c>
+      <c r="R64" t="s">
+        <v>181</v>
+      </c>
+      <c r="S64" t="s">
+        <v>182</v>
+      </c>
+      <c r="T64" t="s">
+        <v>109</v>
+      </c>
+      <c r="U64" t="s">
+        <v>183</v>
+      </c>
+      <c r="V64" t="s">
+        <v>114</v>
+      </c>
+      <c r="W64" t="s">
+        <v>184</v>
+      </c>
+      <c r="X64" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB64">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="1">
+        <v>45269.582145092594</v>
+      </c>
+      <c r="AL64" s="1">
+        <v>45269.582145092594</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>111111111111111</v>
+      </c>
+      <c r="G65" t="s">
+        <v>193</v>
+      </c>
+      <c r="H65" t="s">
+        <v>131</v>
+      </c>
+      <c r="I65" t="s">
+        <v>194</v>
+      </c>
+      <c r="J65" t="s">
+        <v>104</v>
+      </c>
+      <c r="K65" t="s">
+        <v>166</v>
+      </c>
+      <c r="L65" t="s">
+        <v>153</v>
+      </c>
+      <c r="M65" t="s">
+        <v>195</v>
+      </c>
+      <c r="N65" t="s">
+        <v>135</v>
+      </c>
+      <c r="O65" t="s">
+        <v>136</v>
+      </c>
+      <c r="P65" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>168</v>
+      </c>
+      <c r="R65" t="b">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>400</v>
+      </c>
+      <c r="T65">
+        <v>98</v>
+      </c>
+      <c r="U65" t="s">
+        <v>117</v>
+      </c>
+      <c r="V65" t="s">
+        <v>196</v>
+      </c>
+      <c r="W65" t="b">
+        <v>1</v>
+      </c>
+      <c r="X65" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>45269.58603329861</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>45269.58603329861</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>176</v>
+      </c>
+      <c r="G66">
+        <v>111111111111111</v>
+      </c>
+      <c r="H66" t="s">
+        <v>193</v>
+      </c>
+      <c r="I66" t="s">
+        <v>131</v>
+      </c>
+      <c r="J66" t="s">
+        <v>194</v>
+      </c>
+      <c r="K66" t="s">
+        <v>104</v>
+      </c>
+      <c r="L66" t="s">
+        <v>166</v>
+      </c>
+      <c r="M66" t="s">
+        <v>153</v>
+      </c>
+      <c r="N66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O66" t="s">
+        <v>135</v>
+      </c>
+      <c r="P66" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>180</v>
+      </c>
+      <c r="R66" t="s">
+        <v>181</v>
+      </c>
+      <c r="S66" t="s">
+        <v>182</v>
+      </c>
+      <c r="T66" t="s">
+        <v>109</v>
+      </c>
+      <c r="U66" t="s">
+        <v>183</v>
+      </c>
+      <c r="V66" t="s">
+        <v>114</v>
+      </c>
+      <c r="W66" t="s">
+        <v>184</v>
+      </c>
+      <c r="X66" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>400</v>
+      </c>
+      <c r="AD66">
+        <v>98</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>45269.61585462963</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>45269.61585462963</v>
+      </c>
+      <c r="AN66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>123456789</v>
+      </c>
+      <c r="G67" t="s">
+        <v>200</v>
+      </c>
+      <c r="H67" t="s">
+        <v>102</v>
+      </c>
+      <c r="I67" t="s">
+        <v>201</v>
+      </c>
+      <c r="J67" t="s">
+        <v>67</v>
+      </c>
+      <c r="K67" t="s">
+        <v>166</v>
+      </c>
+      <c r="L67" t="s">
+        <v>202</v>
+      </c>
+      <c r="M67" t="s">
+        <v>203</v>
+      </c>
+      <c r="N67" t="s">
+        <v>204</v>
+      </c>
+      <c r="O67" t="s">
+        <v>205</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>168</v>
+      </c>
+      <c r="R67" t="b">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>350</v>
+      </c>
+      <c r="T67">
+        <v>90.5</v>
+      </c>
+      <c r="U67" t="s">
+        <v>206</v>
+      </c>
+      <c r="V67" t="s">
+        <v>204</v>
+      </c>
+      <c r="W67" t="b">
+        <v>1</v>
+      </c>
+      <c r="X67" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>45269.83003604166</v>
+      </c>
+      <c r="AG67" s="1">
+        <v>45269.83003604166</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>123456789</v>
+      </c>
+      <c r="G68" t="s">
+        <v>200</v>
+      </c>
+      <c r="H68" t="s">
+        <v>102</v>
+      </c>
+      <c r="I68" t="s">
+        <v>201</v>
+      </c>
+      <c r="J68" t="s">
+        <v>67</v>
+      </c>
+      <c r="K68" t="s">
+        <v>50</v>
+      </c>
+      <c r="L68" t="s">
+        <v>202</v>
+      </c>
+      <c r="M68" t="s">
+        <v>208</v>
+      </c>
+      <c r="N68" t="s">
+        <v>204</v>
+      </c>
+      <c r="O68" t="s">
+        <v>205</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>168</v>
+      </c>
+      <c r="R68" t="b">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>350</v>
+      </c>
+      <c r="T68">
+        <v>90.5</v>
+      </c>
+      <c r="U68" t="s">
+        <v>206</v>
+      </c>
+      <c r="V68" t="s">
+        <v>204</v>
+      </c>
+      <c r="W68" t="b">
+        <v>1</v>
+      </c>
+      <c r="X68" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>45269.83030381944</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>45269.83030381944</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>20202051521</v>
+      </c>
+      <c r="G69" t="s">
+        <v>210</v>
+      </c>
+      <c r="H69" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" t="s">
+        <v>211</v>
+      </c>
+      <c r="J69" t="s">
+        <v>67</v>
+      </c>
+      <c r="K69" t="s">
+        <v>50</v>
+      </c>
+      <c r="L69" t="s">
+        <v>212</v>
+      </c>
+      <c r="M69" t="s">
+        <v>213</v>
+      </c>
+      <c r="N69" t="s">
+        <v>108</v>
+      </c>
+      <c r="O69" t="s">
+        <v>109</v>
+      </c>
+      <c r="P69" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>105</v>
+      </c>
+      <c r="R69" t="b">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>400</v>
+      </c>
+      <c r="T69">
+        <v>98</v>
+      </c>
+      <c r="U69" t="s">
+        <v>117</v>
+      </c>
+      <c r="V69" t="s">
+        <v>214</v>
+      </c>
+      <c r="W69" t="b">
+        <v>1</v>
+      </c>
+      <c r="X69" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>45269.83342909723</v>
+      </c>
+      <c r="AE69" s="1">
+        <v>45269.83342909723</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>216</v>
+      </c>
+      <c r="B70" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>217</v>
+      </c>
+      <c r="G70">
+        <v>20201115</v>
+      </c>
+      <c r="H70" t="s">
+        <v>101</v>
+      </c>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+      <c r="J70" t="s">
+        <v>201</v>
+      </c>
+      <c r="K70" t="s">
+        <v>67</v>
+      </c>
+      <c r="L70" t="s">
+        <v>50</v>
+      </c>
+      <c r="M70" t="s">
+        <v>218</v>
+      </c>
+      <c r="N70" t="s">
+        <v>219</v>
+      </c>
+      <c r="O70" t="s">
+        <v>220</v>
+      </c>
+      <c r="P70" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>110</v>
+      </c>
+      <c r="R70" t="s">
+        <v>222</v>
+      </c>
+      <c r="S70" t="s">
+        <v>111</v>
+      </c>
+      <c r="T70" t="s">
+        <v>223</v>
+      </c>
+      <c r="U70" t="s">
+        <v>224</v>
+      </c>
+      <c r="V70" t="s">
+        <v>225</v>
+      </c>
+      <c r="W70" t="s">
+        <v>226</v>
+      </c>
+      <c r="X70" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB70">
+        <v>84</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK70" s="1">
+        <v>45269.87815333334</v>
+      </c>
+      <c r="AL70" s="1">
+        <v>45269.87815333334</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>204</v>
+      </c>
+      <c r="G71" t="s">
+        <v>230</v>
+      </c>
+      <c r="H71" t="s">
+        <v>231</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>92</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" t="b">
+        <v>0</v>
+      </c>
+      <c r="O71" t="b">
+        <v>0</v>
+      </c>
+      <c r="P71" s="1">
+        <v>45316.65106775463</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>45316.65106775463</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>233</v>
+      </c>
+      <c r="G72">
+        <v>202001012</v>
+      </c>
+      <c r="H72" t="s">
+        <v>234</v>
+      </c>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+      <c r="J72" t="s">
+        <v>48</v>
+      </c>
+      <c r="K72" t="s">
+        <v>67</v>
+      </c>
+      <c r="L72" t="s">
+        <v>50</v>
+      </c>
+      <c r="M72" t="s">
+        <v>235</v>
+      </c>
+      <c r="N72" t="s">
+        <v>236</v>
+      </c>
+      <c r="O72" t="s">
+        <v>237</v>
+      </c>
+      <c r="P72" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>238</v>
+      </c>
+      <c r="R72" t="s">
+        <v>239</v>
+      </c>
+      <c r="S72" t="s">
+        <v>56</v>
+      </c>
+      <c r="T72" t="s">
+        <v>240</v>
+      </c>
+      <c r="U72" t="s">
+        <v>241</v>
+      </c>
+      <c r="V72" t="s">
+        <v>242</v>
+      </c>
+      <c r="W72" t="s">
+        <v>155</v>
+      </c>
+      <c r="X72" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y72">
+        <v>85</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL72" s="1">
+        <v>45325.91666666667</v>
+      </c>
+      <c r="AM72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO72" s="1">
+        <v>45326.86976850695</v>
+      </c>
+      <c r="AP72" s="1">
+        <v>45326.86976850695</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>246</v>
+      </c>
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>247</v>
+      </c>
+      <c r="G73">
+        <v>202001012</v>
+      </c>
+      <c r="H73" t="s">
+        <v>234</v>
+      </c>
+      <c r="I73" t="s">
+        <v>248</v>
+      </c>
+      <c r="J73" t="s">
+        <v>48</v>
+      </c>
+      <c r="K73" t="s">
+        <v>67</v>
+      </c>
+      <c r="L73" t="s">
+        <v>50</v>
+      </c>
+      <c r="M73" t="s">
+        <v>249</v>
+      </c>
+      <c r="N73" t="s">
+        <v>236</v>
+      </c>
+      <c r="O73" t="s">
+        <v>250</v>
+      </c>
+      <c r="P73" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>238</v>
+      </c>
+      <c r="R73" t="s">
+        <v>239</v>
+      </c>
+      <c r="S73" t="s">
+        <v>251</v>
+      </c>
+      <c r="T73" t="s">
+        <v>240</v>
+      </c>
+      <c r="U73" t="s">
+        <v>241</v>
+      </c>
+      <c r="V73" t="s">
+        <v>242</v>
+      </c>
+      <c r="W73" t="s">
+        <v>155</v>
+      </c>
+      <c r="X73" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y73">
+        <v>85</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL73" s="1">
+        <v>45325.91666666667</v>
+      </c>
+      <c r="AM73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="1">
+        <v>45326.926397303236</v>
+      </c>
+      <c r="AP73" s="1">
+        <v>45326.926397303236</v>
+      </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>